--- a/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>LNVGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14102800</v>
+      </c>
+      <c r="E8" s="3">
         <v>13522000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12512200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11710300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14035100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13379800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11912700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10638300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12938500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11760900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10012200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9578700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12168700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11231200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11838200</v>
+      </c>
+      <c r="E9" s="3">
         <v>11339400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10463800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9815100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11985500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11585700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10281100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9094300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11187500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10148400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8647600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8210200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10573500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9624000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2264600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2182600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2048400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1895200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2049600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1794100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1631600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1544000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1751000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1612500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1364600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1368500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1595200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1607200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>341200</v>
+      </c>
+      <c r="E12" s="3">
         <v>318000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>329300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>371300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>272800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>312300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>309900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>326800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>344400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>310900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>291600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>338700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>318400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>348800</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,11 +1011,11 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1004,17 +1023,20 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13614700</v>
+      </c>
+      <c r="E17" s="3">
         <v>13080200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12169500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11436800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13600700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13090300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11732400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10537600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12734100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11673200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10018300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9504800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12030700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11015800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>488100</v>
+      </c>
+      <c r="E18" s="3">
         <v>441800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>342700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>273500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>434400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>289500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>180300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>204400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>87700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>73900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>138000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>215400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1210,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-66000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-32500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-26200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-23500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-22100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>704700</v>
+      </c>
+      <c r="E21" s="3">
         <v>608500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>529500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>451400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>610700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>474200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>356300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>279800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>382000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>258700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>158500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>247700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>329700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E22" s="3">
         <v>65700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>70100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>67100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>60600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>54200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>55500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>49700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>41600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>43100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>56100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>46900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>390200</v>
+      </c>
+      <c r="E23" s="3">
         <v>310100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>240100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>180200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>350300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>213300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>112800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>36800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>150300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>35300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-69300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>101300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E24" s="3">
         <v>66400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>48200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>46700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>85500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>39800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-11600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>424800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-117800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-15400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-88500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>305500</v>
+      </c>
+      <c r="E26" s="3">
         <v>243600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>191900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>133600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>264800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>173500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>85300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>48400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-274500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>153200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-53900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>103700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>107100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>258100</v>
+      </c>
+      <c r="E27" s="3">
         <v>202200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>162200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>118100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>232800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>168400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>77000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-288800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>139000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-72300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>106900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>98400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E32" s="3">
         <v>66000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>32500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>26200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>23500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>22100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>258100</v>
+      </c>
+      <c r="E33" s="3">
         <v>202200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>162200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>118100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>232800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>168400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>77000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-288800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>139000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-72300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>106900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>98400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>258100</v>
+      </c>
+      <c r="E35" s="3">
         <v>202200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>162200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>118100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>232800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>168400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>77000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-288800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>139000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-72300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>106900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>98400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2052,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3520900</v>
+      </c>
+      <c r="E41" s="3">
         <v>3310900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2717400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2662900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3399900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2212500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2613100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1848000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1660300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1143800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1387500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2754600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2523000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2253100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E42" s="3">
         <v>65200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>70600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>70200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>108600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>112300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>75900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>84300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>86500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>118200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>153600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>196700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>162200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>196600</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12562500</v>
+      </c>
+      <c r="E43" s="3">
         <v>11648000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11474800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9481000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10010500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10509900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10307200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8557600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9712800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9751000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8075700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8062800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8914800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8875200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3998400</v>
+      </c>
+      <c r="E44" s="3">
         <v>3816900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3573000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3434700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3792300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4280900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4125100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3791700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3983300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3600000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3177500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2794000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2833600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2882800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1299100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1275600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1172300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1237500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1168400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1211800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1524900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1381800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1502200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1419700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1354900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1060200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>980200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>930100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21446000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20116800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19008100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16886200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18479800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18327500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18646200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15663300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16945200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16032700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14149300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14868400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15413900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15137700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>618200</v>
+      </c>
+      <c r="E47" s="3">
         <v>556300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>554700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>599900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>559700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>506600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>431900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>408700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>392900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>366600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>304700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>288500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>236300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2016100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1937900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1936400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1662900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1568900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1514700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1636000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1687600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1663500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1706600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1716100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1649400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1588100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8230900</v>
+      </c>
+      <c r="E49" s="3">
         <v>8196700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8391500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8324600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8296700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8286300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8426900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8514500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8416300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8448400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8317200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8349100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8313800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8560500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2715100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2581700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2520900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2514900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2373500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2252300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2170400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2220000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2081500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2369200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2139600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2030600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1651600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1578300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35026300</v>
+      </c>
+      <c r="E54" s="3">
         <v>33389400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32411600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29988500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31278600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>30887400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>31311400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28494200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29499400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28923600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26626800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27186000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27203800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27084500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2748,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8665800</v>
+      </c>
+      <c r="E57" s="3">
         <v>7857700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6736700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6429800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7339800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7281900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7919600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6450800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7498200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7240100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6209100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5649900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6162700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5758900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3966000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3901700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4094900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3225900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3675300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3259700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3470000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1968700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1004200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1045200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1055400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>905600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>700600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>708200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12601600</v>
+      </c>
+      <c r="E59" s="3">
         <v>12280300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12013500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10834600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11768900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12050400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11625600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11040300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12086600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12009800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10788000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11778300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12984600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11364000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25233500</v>
+      </c>
+      <c r="E60" s="3">
         <v>24039700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22845100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20490300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22784100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22592000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23015300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19459700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20589000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20295000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18052500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18333800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19848000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17831000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2498400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2452800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2462800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2426800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1821200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1820100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1842200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2648700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2617700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2591300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2579200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2966700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2465200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2999200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2882400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2846900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2974300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2803400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2521900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2115800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1839700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1916700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1848900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1817100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1790200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1856000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3583200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30588700</v>
+      </c>
+      <c r="E66" s="3">
         <v>29147100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27899500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25598400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27099800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26872400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26971200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23981900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25154000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24769900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22489200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23118700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24201600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23923100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1603800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1453200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1586700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1424000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1249300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1110200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1242900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1160100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1143900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1531400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1684100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1756400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1610600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1616600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4437600</v>
+      </c>
+      <c r="E76" s="3">
         <v>4242300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4512100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4390100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4178800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4015000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4340200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4512300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4345400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4153700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4137600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4067300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3002200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3161400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>258100</v>
+      </c>
+      <c r="E81" s="3">
         <v>202200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>162200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>118100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>232800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>168400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>77000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-288800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>139000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-72300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>106900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>98400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>251200</v>
+      </c>
+      <c r="E83" s="3">
         <v>232700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>219300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>204100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>199800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>206800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>188000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>193300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>190100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>180300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>174900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>176400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>181400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>538300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1381600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-141600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-478100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1547600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>67100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>336000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-753500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>210900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>363600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-577400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>207600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>345500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1558700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-71900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-75000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-76200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-86400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-61300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-55300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-44600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-56700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-177300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-181700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-154700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-215400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-303400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-181500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-217100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-103700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-197400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-173500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-103200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-92900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-743900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1323900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>93100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,13 +4380,14 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-96400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4163,23 +4396,23 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-91400</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>3300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-92300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4187,13 +4420,16 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-85100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-157600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-524100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>512300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-86000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-165100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-317800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>691600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1071600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>395000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-525700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-66500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1318500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-117800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1014900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-63500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-12800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>22000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-46200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-65000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>43000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>20600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>29300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-50800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E102" s="3">
         <v>593500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>54600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-737000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1187300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>765100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>187700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>516500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-243600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1367100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>231600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>270000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>346900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>LNVGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13347900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10579400</v>
+      </c>
+      <c r="F8" s="3">
         <v>14102800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>13522000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>12512200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>11710300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>14035100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>13379800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>11912700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10638300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12938500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>11760900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10012200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9578700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>12168700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>11231200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11306500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8717600</v>
+      </c>
+      <c r="F9" s="3">
         <v>11838200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>11339400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>10463800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>9815100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>11985500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>11585700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>10281100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9094300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11187500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>10148400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>8647600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>8210200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>10573500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>9624000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2041400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1861800</v>
+      </c>
+      <c r="F10" s="3">
         <v>2264600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2182600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2048400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1895200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2049600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1794100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1631600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1544000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1751000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1612500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1364600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1368500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1595200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1607200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>332600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>347200</v>
+      </c>
+      <c r="F12" s="3">
         <v>341200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>318000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>329300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>371300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>272800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>312300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>309900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>326800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>344400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>310900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>291600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>338700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>318400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>348800</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12912000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10413300</v>
+      </c>
+      <c r="F17" s="3">
         <v>13614700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>13080200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>12169500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>11436800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>13600700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>13090300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>11732400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10537600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12734100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>11673200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10018300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>9504800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>12030700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>11015800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>435900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>166100</v>
+      </c>
+      <c r="F18" s="3">
         <v>488100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>441800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>342700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>273500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>434400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>289500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>180300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>100700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>204400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>87700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-6100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>73900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>138000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>215400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1277,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-34700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-66000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-32500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-26200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-23500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-22100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-12000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-14100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-12500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-9300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-10200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>10300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>644500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>406600</v>
+      </c>
+      <c r="F21" s="3">
         <v>704700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>608500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>529500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>451400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>610700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>474200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>356300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>279800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>382000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>258700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>158500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>247700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>329700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>62800</v>
+      </c>
+      <c r="F22" s="3">
         <v>63200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>65700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>70100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>67100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>60600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>54200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>55500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>49700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>41600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>43100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>52900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>56100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>46900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>332100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>77300</v>
+      </c>
+      <c r="F23" s="3">
         <v>390200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>310100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>240100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>180200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>350300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>213300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>112800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>36800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>150300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>35300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-69300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>15200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>101300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F24" s="3">
         <v>84700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>66400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>48200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>46700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>85500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>39800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>27500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-11600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>424800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-117800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-15400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-88500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>246800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>63400</v>
+      </c>
+      <c r="F26" s="3">
         <v>305500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>243600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>191900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>133600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>264800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>173500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>85300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>48400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-274500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>153200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-53900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>103700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>107100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>212800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>42600</v>
+      </c>
+      <c r="F27" s="3">
         <v>258100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>202200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>162200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>118100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>232800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>168400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>77000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>32700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-288800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>139000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-72300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>106900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>98400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F32" s="3">
         <v>34700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>66000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>32500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>26200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>23500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>22100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>12000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>14100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>12500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>9300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>10200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>212800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>42600</v>
+      </c>
+      <c r="F33" s="3">
         <v>258100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>202200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>162200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>118100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>232800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>168400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>77000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>32700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-288800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>139000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-72300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>106900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>98400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>212800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>42600</v>
+      </c>
+      <c r="F35" s="3">
         <v>258100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>202200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>162200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>118100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>232800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>168400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>77000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>32700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-288800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>139000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-72300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>106900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>98400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2225,487 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3495600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3551000</v>
+      </c>
+      <c r="F41" s="3">
         <v>3520900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3310900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2717400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2662900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3399900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2212500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2613100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1848000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1660300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1143800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1387500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2754600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2523000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2253100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>66500</v>
+      </c>
+      <c r="F42" s="3">
         <v>65100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>65200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>70600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>70200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>108600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>112300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>75900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>84300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>86500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>118200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>153600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>196700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>162200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>196600</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10257700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>8850900</v>
+      </c>
+      <c r="F43" s="3">
         <v>12562500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>11648000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>11474800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>9481000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>10010500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>10509900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>10307200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>8557600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>9712800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>9751000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>8075700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>8062800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>8914800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>8875200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5126700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4946900</v>
+      </c>
+      <c r="F44" s="3">
         <v>3998400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3816900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3573000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3434700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3792300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>4280900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>4125100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3791700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3983300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3600000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3177500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2794000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2833600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2882800</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1116900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1318200</v>
+      </c>
+      <c r="F45" s="3">
         <v>1299100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1275600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1172300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1237500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1168400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1211800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1524900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1381800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1502200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1419700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1354900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1060200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>980200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>930100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20047600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>18733400</v>
+      </c>
+      <c r="F46" s="3">
         <v>21446000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>20116800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>19008100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>16886200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>18479800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>18327500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>18646200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>15663300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>16945200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>16032700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>14149300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>14868400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>15413900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>15137700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>701700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>611300</v>
+      </c>
+      <c r="F47" s="3">
         <v>618200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>556300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>554700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>599900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>559700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>506600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>431900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>408700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>392900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>366600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>304700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>288500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>236300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2472500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2017100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2016100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1937900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1936400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1662900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1568900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1514700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1636000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1687600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1663500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1706600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1716100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1649400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1588100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7991500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7984600</v>
+      </c>
+      <c r="F49" s="3">
         <v>8230900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>8196700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>8391500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>8324600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>8296700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>8286300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>8426900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>8514500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>8416300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>8448400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>8317200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>8349100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>8313800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>8560500</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2281700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2781800</v>
+      </c>
+      <c r="F52" s="3">
         <v>2715100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2581700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2520900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2514900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2373500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2252300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2170400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2220000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2081500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2369200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2139600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2030600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1651600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1578300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33495000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>32128200</v>
+      </c>
+      <c r="F54" s="3">
         <v>35026300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>33389400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>32411600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>29988500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>31278600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>30887400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>31311400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>28494200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>29499400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>28923600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>26626800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>27186000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>27203800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>27084500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +3009,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7806100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7509700</v>
+      </c>
+      <c r="F57" s="3">
         <v>8665800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7857700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6736700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6429800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7339800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7281900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7919600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>6450800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7498200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7240100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6209100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5649900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6162700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>5758900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3895400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4845600</v>
+      </c>
+      <c r="F58" s="3">
         <v>3966000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3901700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4094900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3225900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3675300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3259700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3470000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1968700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1004200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1045200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1055400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>905600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>700600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>708200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11673600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10902800</v>
+      </c>
+      <c r="F59" s="3">
         <v>12601600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>12280300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>12013500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10834600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11768900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>12050400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11625600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11040300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>12086600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>12009800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>10788000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>11778300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>12984600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>11364000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23375100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>23258100</v>
+      </c>
+      <c r="F60" s="3">
         <v>25233500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>24039700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>22845100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>20490300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>22784100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>22592000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>23015300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>19459700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>20589000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>20295000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>18052500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>18333800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>19848000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>17831000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2867400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1911400</v>
+      </c>
+      <c r="F61" s="3">
         <v>2498400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2452800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2462800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2426800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1821200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1820100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1842200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2648700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2617700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2591300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2579200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2966700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2465200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3022200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2899300</v>
+      </c>
+      <c r="F62" s="3">
         <v>2999200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2882400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2846900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2974300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2803400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2521900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2115800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1839700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1916700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1848900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1817100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1790200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1856000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3583200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29159200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>27937000</v>
+      </c>
+      <c r="F66" s="3">
         <v>30588700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>29147100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>27899500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>25598400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>27099800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>26872400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>26971200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>23981900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>25154000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>24769900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>22489200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>23118700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>24201600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>23923100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1825700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1614800</v>
+      </c>
+      <c r="F72" s="3">
         <v>1603800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1453200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1586700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1424000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1249300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1110200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1242900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1160100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1143900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1531400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1684100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1756400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1610600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1616600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4335800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4191200</v>
+      </c>
+      <c r="F76" s="3">
         <v>4437600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4242300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4512100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4390100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4178800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4015000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4340200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4512300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4345400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4153700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4137600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4067300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3002200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3161400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>212800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>42600</v>
+      </c>
+      <c r="F81" s="3">
         <v>258100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>202200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>162200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>118100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>232800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>168400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>77000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>32700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-288800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>139000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-72300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>106900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>98400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>248300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>266500</v>
+      </c>
+      <c r="F83" s="3">
         <v>251200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>232700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>219300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>204100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>199800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>206800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>188000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>193300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>190100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>180300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>174900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>176400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>181400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>317100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>431600</v>
+      </c>
+      <c r="F89" s="3">
         <v>538300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1381600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-141600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-478100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1547600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>67100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>336000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-753500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>210900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>363600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-577400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>207600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>345500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1558700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-71900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-75000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-31200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-76200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-86400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-34900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-37200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-61300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-55300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-44600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-56700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-177300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-181700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-154700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-285100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-237800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-215400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-303400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-181500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-217100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-103700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-197400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-173500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-103200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-92900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-743900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1323900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>93100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4847,63 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-96400</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-91400</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>3300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-92300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-85100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-91100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-157600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-524100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>512300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-86000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-165100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-317800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>691600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1071600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>395000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-525700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-66500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1318500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-117800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1014900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="F101" s="3">
         <v>44700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-63500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-12800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>8500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>22000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-46200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-65000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>43000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>13700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>11400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>20600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>29300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-50800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>30100</v>
+      </c>
+      <c r="F102" s="3">
         <v>210000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>593500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>54600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-737000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1187300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>765100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>187700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>516500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-243600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1367100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>231600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>270000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>346900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14518900</v>
+      </c>
+      <c r="E8" s="3">
         <v>13347900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10579400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14102800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13522000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12512200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11710300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14035100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13379800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11912700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10638300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12938500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11760900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10012200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9578700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12168700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11231200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12266400</v>
+      </c>
+      <c r="E9" s="3">
         <v>11306500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8717600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11838200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11339400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10463800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9815100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11985500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11585700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10281100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9094300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11187500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10148400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8647600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8210200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10573500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9624000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2252500</v>
+      </c>
+      <c r="E10" s="3">
         <v>2041400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1861800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2264600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2182600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2048400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1895200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2049600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1794100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1631600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1544000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1751000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1612500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1364600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1368500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1595200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1607200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>306500</v>
+      </c>
+      <c r="E12" s="3">
         <v>332600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>347200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>341200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>318000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>329300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>371300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>272800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>312300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>309900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>326800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>344400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>310900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>291600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>338700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>318400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>348800</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1054,17 +1074,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1072,17 +1092,20 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13954400</v>
+      </c>
+      <c r="E17" s="3">
         <v>12912000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10413300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13614700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13080200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12169500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11436800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13600700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13090300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11732400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10537600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12734100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11673200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10018300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9504800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12030700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11015800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>564500</v>
+      </c>
+      <c r="E18" s="3">
         <v>435900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>166100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>488100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>441800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>342700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>273500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>434400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>289500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>180300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>204400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>87700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>73900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>138000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>215400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-39700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-26100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-34700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-66000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-32500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-26200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-23500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-22100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>788500</v>
+      </c>
+      <c r="E21" s="3">
         <v>644500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>406600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>704700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>608500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>529500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>451400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>610700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>474200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>356300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>279800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>382000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>258700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>158500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>247700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>329700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E22" s="3">
         <v>64100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>62800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>63200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>65700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>70100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>67100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>60600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>55500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>49700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>41600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>43100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>52900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>56100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>46900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>470400</v>
+      </c>
+      <c r="E23" s="3">
         <v>332100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>77300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>390200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>310100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>240100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>180200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>350300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>213300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>112800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>36800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>150300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>35300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-69300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>101300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>120800</v>
+      </c>
+      <c r="E24" s="3">
         <v>85300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>84700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>66400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>48200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>46700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>85500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-11600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>424800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-117800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-88500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>349600</v>
+      </c>
+      <c r="E26" s="3">
         <v>246800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>63400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>305500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>243600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>191900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>133600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>264800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>173500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>85300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-274500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>153200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-53900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>103700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>107100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>310200</v>
+      </c>
+      <c r="E27" s="3">
         <v>212800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>42600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>258100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>202200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>162200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>118100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>232800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>168400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>77000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-288800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>139000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-72300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>106900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>98400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E32" s="3">
         <v>39700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>26100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>34700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>66000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>32500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>26200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>23500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>22100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>310200</v>
+      </c>
+      <c r="E33" s="3">
         <v>212800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>42600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>258100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>202200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>162200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>118100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>232800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>168400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>77000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-288800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>139000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-72300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>106900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>98400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>310200</v>
+      </c>
+      <c r="E35" s="3">
         <v>212800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>42600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>258100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>202200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>162200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>118100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>232800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>168400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>77000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-288800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>139000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-72300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>106900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>98400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3698700</v>
+      </c>
+      <c r="E41" s="3">
         <v>3495600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3551000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3520900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3310900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2717400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2662900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3399900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2212500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2613100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1848000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1660300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1143800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1387500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2754600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2523000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2253100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E42" s="3">
         <v>50700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>66500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>65100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>65200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>70600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>70200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>108600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>112300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>75900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>84300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>86500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>118200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>153600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>196700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>162200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>196600</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11207200</v>
+      </c>
+      <c r="E43" s="3">
         <v>10257700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8850900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12562500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11648000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11474800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9481000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10010500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10509900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10307200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8557600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9712800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9751000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8075700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8062800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8914800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8875200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5242300</v>
+      </c>
+      <c r="E44" s="3">
         <v>5126700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4946900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3998400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3816900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3573000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3434700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3792300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4280900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4125100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3791700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3983300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3600000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3177500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2794000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2833600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2882800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1102900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1116900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1318200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1299100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1275600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1172300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1237500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1168400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1211800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1524900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1381800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1502200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1419700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1354900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1060200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>980200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>930100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21305000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20047600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18733400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21446000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20116800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19008100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16886200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18479800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18327500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18646200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15663300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16945200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16032700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14149300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14868400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15413900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15137700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>844200</v>
+      </c>
+      <c r="E47" s="3">
         <v>701700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>611300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>618200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>556300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>554700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>599900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>559700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>506600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>431900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>408700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>392900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>366600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>304700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>288500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>236300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2555100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2472500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2017100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2016100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1937900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1936400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1662900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1568900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1514700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1636000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1687600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1663500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1706600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1716100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1649400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1588100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7980100</v>
+      </c>
+      <c r="E49" s="3">
         <v>7991500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7984600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8230900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8196700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8391500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8324600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8296700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8286300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8426900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8514500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8416300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8448400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8317200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8349100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8313800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8560500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2399800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2281700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2781800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2715100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2581700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2520900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2514900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2373500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2252300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2170400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2220000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2081500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2369200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2139600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2030600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1651600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1578300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35084200</v>
+      </c>
+      <c r="E54" s="3">
         <v>33495000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32128200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35026300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33389400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32411600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29988500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>31278600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30887400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31311400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28494200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29499400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28923600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26626800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27186000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27203800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27084500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8525700</v>
+      </c>
+      <c r="E57" s="3">
         <v>7806100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7509700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8665800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7857700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6736700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6429800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7339800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7281900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7919600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6450800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7498200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7240100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6209100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5649900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6162700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5758900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3508300</v>
+      </c>
+      <c r="E58" s="3">
         <v>3895400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4845600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3966000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3901700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4094900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3225900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3675300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3259700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3470000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1968700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1004200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1045200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1055400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>905600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>700600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>708200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12541100</v>
+      </c>
+      <c r="E59" s="3">
         <v>11673600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10902800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12601600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12280300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12013500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10834600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11768900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12050400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11625600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11040300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12086600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12009800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10788000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11778300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12984600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11364000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24575100</v>
+      </c>
+      <c r="E60" s="3">
         <v>23375100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23258100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25233500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24039700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22845100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20490300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22784100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22592000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23015300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19459700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20589000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20295000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18052500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18333800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19848000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17831000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2873000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2867400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1911400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2498400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2452800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2462800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2426800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1821200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1820100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1842200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2648700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2617700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2591300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2579200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2966700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2465200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3179700</v>
+      </c>
+      <c r="E62" s="3">
         <v>3022200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2899300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2999200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2882400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2846900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2974300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2803400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2521900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2115800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1839700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1916700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1848900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1817100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1790200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1856000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3583200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30568500</v>
+      </c>
+      <c r="E66" s="3">
         <v>29159200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27937000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30588700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29147100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>27899500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25598400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27099800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26872400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26971200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23981900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25154000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24769900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22489200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23118700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>24201600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>23923100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1803600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1825700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1614800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1603800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1453200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1586700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1424000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1249300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1110200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1242900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1160100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1143900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1531400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1684100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1756400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1610600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1616600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4515700</v>
+      </c>
+      <c r="E76" s="3">
         <v>4335800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4191200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4437600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4242300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4512100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4390100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4178800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4015000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4340200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4512300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4345400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4153700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4137600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4067300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3002200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3161400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>310200</v>
+      </c>
+      <c r="E81" s="3">
         <v>212800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>42600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>258100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>202200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>162200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>118100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>232800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>168400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>77000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-288800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>139000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-72300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>106900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>98400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>257100</v>
+      </c>
+      <c r="E83" s="3">
         <v>248300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>266500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>251200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>232700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>219300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>204100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>199800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>206800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>188000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>193300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>190100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>180300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>174900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>176400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>181400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>771400</v>
+      </c>
+      <c r="E89" s="3">
         <v>317100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>431600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>538300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1381600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-141600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-478100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1547600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>67100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>336000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-753500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>210900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>363600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-577400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>207600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>345500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1558700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-50200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-68600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-71900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-75000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-76200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-86400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-61300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-44600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-177300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-181700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-154700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-214300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-285100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-237800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-215400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-303400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-181500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-217100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-103700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-197400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-173500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-103200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-92900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-743900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1323900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>93100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4861,11 +5095,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-96400</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -4873,23 +5107,23 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-91400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>3300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-92300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -4897,13 +5131,16 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-85100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-387900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-91100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-69000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-157600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-524100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>512300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-86000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-165100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-317800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>691600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1071600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>395000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-525700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-66500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1318500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-117800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1014900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E101" s="3">
         <v>3700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-94800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>44700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-63500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>22000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-46200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-65000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>43000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>20600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>29300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-50800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-55400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>30100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>210000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>593500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>54600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-737000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1187300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>765100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>187700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>516500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-243600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1367100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>231600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>270000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>346900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17245400</v>
+      </c>
+      <c r="E8" s="3">
         <v>14518900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13347900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10579400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14102800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13522000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12512200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11710300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14035100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13379800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11912700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10638300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12938500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11760900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10012200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9578700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12168700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11231200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14459300</v>
+      </c>
+      <c r="E9" s="3">
         <v>12266400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11306500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8717600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11838200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11339400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10463800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9815100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11985500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11585700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10281100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9094300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11187500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10148400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8647600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8210200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10573500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9624000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2786100</v>
+      </c>
+      <c r="E10" s="3">
         <v>2252500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2041400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1861800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2264600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2182600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2048400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1895200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2049600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1794100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1631600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1544000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1751000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1612500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1364600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1368500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1595200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1607200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>398100</v>
+      </c>
+      <c r="E12" s="3">
         <v>306500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>332600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>347200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>341200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>318000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>329300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>371300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>272800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>312300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>309900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>326800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>344400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>310900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>291600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>338700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>318400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>348800</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1077,17 +1096,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1095,17 +1114,20 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16544200</v>
+      </c>
+      <c r="E17" s="3">
         <v>13954400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12912000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10413300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13614700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13080200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12169500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11436800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13600700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13090300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11732400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10537600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12734100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11673200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10018300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9504800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12030700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11015800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>701200</v>
+      </c>
+      <c r="E18" s="3">
         <v>564500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>435900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>166100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>488100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>441800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>342700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>273500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>434400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>289500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>180300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>204400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>87700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>73900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>138000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>215400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-33100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-39700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-26100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-34700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-66000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-32500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-26200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-23500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-22100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-10200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>924900</v>
+      </c>
+      <c r="E21" s="3">
         <v>788500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>644500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>406600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>704700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>608500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>529500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>451400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>610700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>474200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>356300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>279800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>382000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>258700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>158500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>247700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>329700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E22" s="3">
         <v>61000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>64100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>62800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>63200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>65700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>70100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>67100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>54200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>55500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>49700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>41600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>43100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>52900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>56100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>46900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>591500</v>
+      </c>
+      <c r="E23" s="3">
         <v>470400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>332100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>77300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>390200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>310100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>240100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>180200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>350300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>213300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>112800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>36800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>150300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>35300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-69300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>101300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E24" s="3">
         <v>120800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>85300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>84700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>66400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>48200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>46700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>85500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>424800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-117800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-15400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-88500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-5700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>431400</v>
+      </c>
+      <c r="E26" s="3">
         <v>349600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>246800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>63400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>305500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>243600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>191900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>133600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>264800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>173500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>85300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-274500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>153200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-53900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>103700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>107100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>395100</v>
+      </c>
+      <c r="E27" s="3">
         <v>310200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>212800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>42600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>258100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>202200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>162200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>118100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>232800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>168400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>77000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-288800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>139000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-72300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>106900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>98400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E32" s="3">
         <v>33100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>39700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>26100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>34700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>66000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>32500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>26200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>23500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>22100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>10200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>395100</v>
+      </c>
+      <c r="E33" s="3">
         <v>310200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>212800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>42600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>258100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>202200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>162200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>118100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>232800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>168400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>77000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-288800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>139000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-72300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>106900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>98400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>395100</v>
+      </c>
+      <c r="E35" s="3">
         <v>310200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>212800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>42600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>258100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>202200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>162200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>118100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>232800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>168400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>77000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-288800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>139000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-72300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>106900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>98400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4040100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3698700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3495600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3551000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3520900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3310900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2717400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2662900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3399900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2212500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2613100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1848000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1660300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1143800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1387500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2754600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2523000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2253100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E42" s="3">
         <v>54000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>50700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>66500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>65100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>65200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>70600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>70200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>108600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>112300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>75900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>84300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>86500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>118200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>153600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>196700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>162200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>196600</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13537100</v>
+      </c>
+      <c r="E43" s="3">
         <v>11207200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10257700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8850900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12562500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11648000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11474800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9481000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10010500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10509900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10307200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8557600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9712800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9751000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8075700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8062800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8914800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8875200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5785800</v>
+      </c>
+      <c r="E44" s="3">
         <v>5242300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5126700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4946900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3998400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3816900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3573000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3434700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3792300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4280900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4125100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3791700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3983300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3600000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3177500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2794000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2833600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2882800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1036400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1102900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1116900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1318200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1299100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1275600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1172300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1237500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1168400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1211800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1524900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1381800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1502200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1419700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1354900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1060200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>980200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>930100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24450500</v>
+      </c>
+      <c r="E46" s="3">
         <v>21305000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20047600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18733400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21446000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>20116800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19008100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16886200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18479800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18327500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18646200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15663300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16945200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16032700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14149300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14868400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15413900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15137700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>939200</v>
+      </c>
+      <c r="E47" s="3">
         <v>844200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>701700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>611300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>618200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>556300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>554700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>599900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>559700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>506600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>431900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>408700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>392900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>366600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>304700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>288500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>236300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2565700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2555100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2472500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2017100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2016100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1937900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1936400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1662900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1568900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1514700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1636000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1687600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1663500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1706600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1716100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1649400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1588100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8152100</v>
+      </c>
+      <c r="E49" s="3">
         <v>7980100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7991500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7984600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8230900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8196700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8391500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8324600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8296700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8286300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8426900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8514500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8416300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8448400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8317200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8349100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8313800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8560500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2537600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2399800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2281700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2781800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2715100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2581700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2520900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2514900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2373500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2252300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2170400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2220000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2081500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2369200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2139600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2030600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1651600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1578300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38645100</v>
+      </c>
+      <c r="E54" s="3">
         <v>35084200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33495000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32128200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35026300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33389400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32411600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29988500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31278600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30887400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31311400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28494200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29499400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28923600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>26626800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27186000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27203800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27084500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9968000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8525700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7806100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7509700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8665800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7857700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6736700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6429800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7339800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7281900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7919600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6450800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7498200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7240100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6209100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5649900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6162700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5758900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1987100</v>
+      </c>
+      <c r="E58" s="3">
         <v>3508300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3895400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4845600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3966000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3901700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4094900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3225900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3675300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3259700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3470000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1968700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1004200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1045200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1055400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>905600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>700600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>708200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15165700</v>
+      </c>
+      <c r="E59" s="3">
         <v>12541100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11673600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10902800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12601600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12280300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12013500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10834600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11768900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12050400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11625600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11040300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12086600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12009800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10788000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11778300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12984600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11364000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27120700</v>
+      </c>
+      <c r="E60" s="3">
         <v>24575100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23375100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23258100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25233500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24039700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22845100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20490300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22784100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22592000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23015300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19459700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20589000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20295000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18052500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18333800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19848000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17831000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4246500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2873000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2867400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1911400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2498400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2452800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2462800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2426800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1821200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1820100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1842200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2648700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2617700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2591300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2579200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2966700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2465200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3367000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3179700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3022200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2899300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2999200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2882400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2846900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2974300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2803400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2521900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2115800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1839700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1916700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1848900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1817100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1790200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1856000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3583200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34758400</v>
+      </c>
+      <c r="E66" s="3">
         <v>30568500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29159200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27937000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30588700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29147100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>27899500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25598400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27099800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26872400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26971200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23981900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25154000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24769900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22489200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23118700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>24201600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>23923100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2056000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1803600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1825700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1614800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1603800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1453200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1586700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1424000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1249300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1110200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1242900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1160100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1143900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1531400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1684100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1756400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1610600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1616600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3886800</v>
+      </c>
+      <c r="E76" s="3">
         <v>4515700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4335800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4191200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4437600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4242300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4512100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4390100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4178800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4015000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4340200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4512300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4345400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4153700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4137600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4067300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3002200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3161400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>395100</v>
+      </c>
+      <c r="E81" s="3">
         <v>310200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>212800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>42600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>258100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>202200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>162200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>118100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>232800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>168400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>77000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-288800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>139000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-72300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>106900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>98400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E83" s="3">
         <v>257100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>248300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>266500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>251200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>232700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>219300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>204100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>199800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>206800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>188000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>193300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>190100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>180300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>174900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>176400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>181400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1962900</v>
+      </c>
+      <c r="E89" s="3">
         <v>771400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>317100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>431600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>538300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1381600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-141600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-478100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1547600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>67100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>336000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-753500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>210900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>363600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-577400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>207600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>345500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1558700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-69600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-50200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-68600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-71900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-75000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-76200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-86400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-61300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-55300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-44600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-56700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-177300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-181700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-154700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-214300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-285100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-237800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-215400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-303400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-181500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-217100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-103700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-197400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-173500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-103200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-92900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-743900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1323900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>93100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,13 +5315,14 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-102000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5098,11 +5331,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-96400</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -5110,23 +5343,23 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-91400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>3300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-92300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5134,13 +5367,16 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-85100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1524500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-387900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-91100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-69000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-157600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-524100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>512300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-86000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-165100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-317800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>691600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1071600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>395000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-525700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-66500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1318500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-117800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1014900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E101" s="3">
         <v>33800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-94800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>44700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-63500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-12800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>22000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-46200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-65000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>43000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>13700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>20600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>29300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-50800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>341500</v>
+      </c>
+      <c r="E102" s="3">
         <v>203000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-55400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>210000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>593500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>54600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-737000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1187300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>765100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>187700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>516500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-243600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1367100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>231600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>270000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>346900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,295 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16929200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15630100</v>
+      </c>
+      <c r="F8" s="3">
         <v>17245400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>14518900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>13347900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>10579400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>14102800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>13522000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>12512200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11710300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>14035100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>13379800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>11912700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>10638300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>12938500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>11760900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>10012200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>9578700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>12168700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>11231200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14105500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12942200</v>
+      </c>
+      <c r="F9" s="3">
         <v>14459300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>12266400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>11306500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>8717600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>11838200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>11339400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>10463800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9815100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11985500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>11585700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>10281100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>9094300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11187500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>10148400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>8647600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>8210200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>10573500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>9624000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2823700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2687900</v>
+      </c>
+      <c r="F10" s="3">
         <v>2786100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2252500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2041400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1861800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2264600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2182600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2048400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1895200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2049600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1794100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1631600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1544000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1751000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1612500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1364600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1368500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1595200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1607200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +975,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>466500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>416700</v>
+      </c>
+      <c r="F12" s="3">
         <v>398100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>306500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>332600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>347200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>341200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>318000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>329300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>371300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>272800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>312300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>309900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>326800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>344400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>310900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>291600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>338700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>318400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>348800</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1099,35 +1139,41 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16186500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15151300</v>
+      </c>
+      <c r="F17" s="3">
         <v>16544200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>13954400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>12912000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>10413300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>13614700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>13080200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>12169500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>11436800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>13600700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>13090300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>11732400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10537600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>12734100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>11673200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>10018300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>9504800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>12030700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>11015800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>742700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>478800</v>
+      </c>
+      <c r="F18" s="3">
         <v>701200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>564500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>435900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>166100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>488100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>441800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>342700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>273500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>434400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>289500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>180300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>100700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>204400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>87700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-6100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>73900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>138000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>215400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1412,335 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-36300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-33100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-39700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-26100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-34700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-66000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-32500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-26200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-23500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-22100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-12000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-14100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-9300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-10200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>10300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1022700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>743300</v>
+      </c>
+      <c r="F21" s="3">
         <v>924900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>788500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>644500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>406600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>704700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>608500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>529500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>451400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>610700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>474200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>356300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>279800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>382000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>258700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>158500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>247700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>329700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>68500</v>
+      </c>
+      <c r="F22" s="3">
         <v>73400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>61000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>64100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>62800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>63200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>65700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>70100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>67100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>60600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>54200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>55500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>49700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>41600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>43100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>52900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>56100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>46900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>650200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>380300</v>
+      </c>
+      <c r="F23" s="3">
         <v>591500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>470400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>332100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>77300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>390200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>310100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>240100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>180200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>350300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>213300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>112800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>36800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>150300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>35300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-69300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>15200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>101300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>165100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>95100</v>
+      </c>
+      <c r="F24" s="3">
         <v>160000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>120800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>85300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>13900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>84700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>66400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>48200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>46700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>85500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>39800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>27500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-11600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>424800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-117800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-15400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-88500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-5700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>485200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>285200</v>
+      </c>
+      <c r="F26" s="3">
         <v>431400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>349600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>246800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>63400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>305500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>243600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>191900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>133600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>264800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>173500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>85300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>48400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-274500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>153200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-53900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>103700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>107100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>466100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>260200</v>
+      </c>
+      <c r="F27" s="3">
         <v>395100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>310200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>212800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>42600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>258100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>202200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>162200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>118100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>232800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>168400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>77000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>32700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-288800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>139000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-72300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>106900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>98400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>30100</v>
+      </c>
+      <c r="F32" s="3">
         <v>36300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>33100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>39700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>26100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>34700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>66000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>32500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>26200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>23500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>22100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>12000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>14100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>12500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>9300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>10200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-10300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>466100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>260200</v>
+      </c>
+      <c r="F33" s="3">
         <v>395100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>310200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>212800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>42600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>258100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>202200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>162200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>118100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>232800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>168400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>77000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>32700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-288800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>139000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-72300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>106900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>98400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>466100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>260200</v>
+      </c>
+      <c r="F35" s="3">
         <v>395100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>310200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>212800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>42600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>258100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>202200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>162200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>118100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>232800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>168400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>77000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>32700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-288800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>139000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-72300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>106900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>98400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2572,595 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3175800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3068400</v>
+      </c>
+      <c r="F41" s="3">
         <v>4040100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3698700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3495600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3551000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3520900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3310900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2717400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2662900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3399900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2212500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2613100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1848000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1660300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1143800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1387500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2754600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2523000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2253100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>59400</v>
+      </c>
+      <c r="F42" s="3">
         <v>51100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>54000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>50700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>66500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>65100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>65200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>70600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>70200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>108600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>112300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>75900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>84300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>86500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>118200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>153600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>196700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>162200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>196600</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13029500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>12518900</v>
+      </c>
+      <c r="F43" s="3">
         <v>13537100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>11207200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>10257700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>8850900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>12562500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>11648000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>11474800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>9481000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>10010500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>10509900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>10307200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>8557600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>9712800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>9751000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>8075700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>8062800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>8914800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>8875200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7825800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6380600</v>
+      </c>
+      <c r="F44" s="3">
         <v>5785800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>5242300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>5126700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4946900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3998400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3816900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3573000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3434700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3792300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>4280900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>4125100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3791700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3983300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3600000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3177500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2794000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>2833600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>2882800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1396500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1308100</v>
+      </c>
+      <c r="F45" s="3">
         <v>1036400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1102900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1116900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1318200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1299100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1275600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1172300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1237500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1168400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1211800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1524900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1381800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1502200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1419700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1354900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1060200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>980200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>930100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25510300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>23335400</v>
+      </c>
+      <c r="F46" s="3">
         <v>24450500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>21305000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>20047600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>18733400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>21446000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>20116800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>19008100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>16886200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>18479800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>18327500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>18646200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>15663300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>16945200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>16032700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>14149300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>14868400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>15413900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>15137700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1120400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>955300</v>
+      </c>
+      <c r="F47" s="3">
         <v>939200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>844200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>701700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>611300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>618200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>556300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>554700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>599900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>559700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>506600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>431900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>408700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>392900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>366600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>304700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>288500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>236300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2657000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2674900</v>
+      </c>
+      <c r="F48" s="3">
         <v>2565700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2555100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2472500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2017100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2016100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1937900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1936400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1662900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1568900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1514700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1636000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1687600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1663500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1706600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1716100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1649400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1588100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8447600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8405000</v>
+      </c>
+      <c r="F49" s="3">
         <v>8152100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>7980100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>7991500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>7984600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>8230900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>8196700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>8391500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>8324600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>8296700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>8286300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>8426900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>8514500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>8416300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>8448400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>8317200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>8349100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>8313800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>8560500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3283,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2725300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2620100</v>
+      </c>
+      <c r="F52" s="3">
         <v>2537600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2399800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2281700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2781800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2715100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2581700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2520900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2514900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2373500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2252300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2170400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2220000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2081500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2369200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2139600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2030600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1651600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1578300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40460600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>37990600</v>
+      </c>
+      <c r="F54" s="3">
         <v>38645100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>35084200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>33495000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>32128200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>35026300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>33389400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>32411600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>29988500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>31278600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>30887400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>31311400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>28494200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>29499400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>28923600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>26626800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>27186000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>27203800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>27084500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3532,400 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11198200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10220800</v>
+      </c>
+      <c r="F57" s="3">
         <v>9968000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8525700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7806100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>7509700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>8665800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7857700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6736700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>6429800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7339800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7281900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>7919600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6450800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>7498200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>7240100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>6209100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5649900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>6162700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>5758900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1853800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1717600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1987100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3508300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3895400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4845600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3966000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3901700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4094900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3225900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3675300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3259700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3470000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1968700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1004200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1045200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1055400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>905600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>700600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>708200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16166600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>15433300</v>
+      </c>
+      <c r="F59" s="3">
         <v>15165700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>12541100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11673600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10902800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>12601600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>12280300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12013500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>10834600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11768900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>12050400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11625600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>11040300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>12086600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>12009800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>10788000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>11778300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>12984600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>11364000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29218600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>27371600</v>
+      </c>
+      <c r="F60" s="3">
         <v>27120700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>24575100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>23375100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>23258100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>25233500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>24039700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>22845100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>20490300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>22784100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>22592000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>23015300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>19459700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>20589000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>20295000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>18052500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>18333800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>19848000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>17831000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3622000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3632800</v>
+      </c>
+      <c r="F61" s="3">
         <v>4246500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2873000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2867400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1911400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2498400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2452800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2462800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2426800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1821200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1820100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1842200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2648700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2617700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2591300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2579200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2966700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2465200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3460000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3375600</v>
+      </c>
+      <c r="F62" s="3">
         <v>3367000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3179700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3022200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2899300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2999200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2882400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2846900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2974300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2803400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2521900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2115800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1839700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1916700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1848900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1817100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1790200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1856000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>3583200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36400300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>34431600</v>
+      </c>
+      <c r="F66" s="3">
         <v>34758400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>30568500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>29159200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>27937000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>30588700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>29147100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>27899500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>25598400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>27099800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>26872400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>26971200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>23981900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>25154000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>24769900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>22489200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>23118700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>24201600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>23923100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2796200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2334600</v>
+      </c>
+      <c r="F72" s="3">
         <v>2056000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1803600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1825700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1614800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1603800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1453200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1586700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1424000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1249300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1110200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1242900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1160100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1143900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1531400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1684100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1756400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1610600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1616600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4060400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3559000</v>
+      </c>
+      <c r="F76" s="3">
         <v>3886800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4515700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4335800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4191200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4437600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4242300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4512100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4390100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4178800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4015000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4340200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4512300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4345400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4153700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4137600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4067300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3002200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3161400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>466100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>260200</v>
+      </c>
+      <c r="F81" s="3">
         <v>395100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>310200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>212800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>42600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>258100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>202200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>162200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>118100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>232800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>168400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>77000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>32700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-288800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>139000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-72300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>106900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>98400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +5017,75 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>307300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>294600</v>
+      </c>
+      <c r="F83" s="3">
         <v>260000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>257100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>248300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>266500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>251200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>232700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>219300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>204100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>199800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>206800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>188000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>193300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>190100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>180300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>174900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>176400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>181400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>447600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>601400</v>
+      </c>
+      <c r="F89" s="3">
         <v>1962900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>771400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>317100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>431600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>538300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1381600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-141600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-478100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1547600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>67100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>336000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-753500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>210900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>363600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-577400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>207600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>345500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1558700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5497,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-97900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-111400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-71600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-69600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-50200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-68600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-71900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-75000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-31200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-76200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-86400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-34900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-37200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-61300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-55300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-44600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-56700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-177300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-181700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-154700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-191600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-279600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-197000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-214300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-285100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-237800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-215400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-303400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-181500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-217100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-103700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-197400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-173500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-103200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-92900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-743900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1323900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>93100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-200800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5782,75 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-102000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-96400</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-91400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>3300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-92300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-85100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +6038,205 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-179800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1224700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1524500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-387900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-91100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-69000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-157600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-524100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>512300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-86000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-165100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-317800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>691600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1071600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>395000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-525700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-66500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1318500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-117800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1014900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="F101" s="3">
         <v>100100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>33800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>3700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-94800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>44700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-63500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-12800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>8500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>22000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-46200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-65000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>43000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>13700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>11400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>20600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>29300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-50800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>107400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-971800</v>
+      </c>
+      <c r="F102" s="3">
         <v>341500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>203000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-55400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>30100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>210000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>593500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>54600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-737000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1187300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-400600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>765100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>187700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>516500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-243600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1367100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>231600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>270000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>346900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17868700</v>
+      </c>
+      <c r="E8" s="3">
         <v>16929200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15630100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17245400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14518900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13347900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10579400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14102800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13522000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12512200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11710300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14035100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13379800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11912700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10638300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12938500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11760900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10012200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9578700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12168700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11231200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14862900</v>
+      </c>
+      <c r="E9" s="3">
         <v>14105500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12942200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14459300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12266400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11306500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8717600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11838200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11339400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10463800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9815100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11985500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11585700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10281100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9094300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11187500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10148400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8647600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8210200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10573500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9624000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3005800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2823700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2687900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2786100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2252500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2041400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1861800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2264600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2182600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2048400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1895200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2049600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1794100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1631600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1544000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1751000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1612500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1364600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1368500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1595200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1607200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>482000</v>
+      </c>
+      <c r="E12" s="3">
         <v>466500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>416700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>398100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>306500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>332600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>347200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>341200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>318000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>329300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>371300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>272800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>312300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>309900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>326800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>344400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>310900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>291600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>338700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>318400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>348800</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,17 +1165,17 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1163,17 +1183,20 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17052100</v>
+      </c>
+      <c r="E17" s="3">
         <v>16186500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15151300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16544200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13954400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12912000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10413300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13614700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13080200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12169500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11436800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13600700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13090300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11732400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10537600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12734100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11673200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10018300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9504800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12030700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11015800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>816600</v>
+      </c>
+      <c r="E18" s="3">
         <v>742700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>478800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>701200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>564500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>435900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>166100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>488100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>441800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>342700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>273500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>434400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>289500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>180300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>204400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>87700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>73900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>138000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>215400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-27400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-30100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-36300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-33100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-39700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-26100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-34700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-66000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-32500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-26200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-23500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-22100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-14100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-10200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>10300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1022700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>743300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>924900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>788500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>644500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>406600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>704700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>608500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>529500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>451400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>610700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>474200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>356300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>279800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>382000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>258700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>158500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>247700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>329700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E22" s="3">
         <v>65100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>68500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>73400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>61000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>64100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>62800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>63200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>65700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>70100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>67100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>54200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>55500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>49700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>41600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>43100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>52900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>56100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>46900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>742100</v>
+      </c>
+      <c r="E23" s="3">
         <v>650200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>380300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>591500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>470400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>332100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>77300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>390200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>310100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>240100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>180200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>350300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>213300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>112800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>36800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>150300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>35300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-69300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>15200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>101300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>185100</v>
+      </c>
+      <c r="E24" s="3">
         <v>165100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>95100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>160000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>120800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>85300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>13900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>84700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>66400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>48200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>46700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>85500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>39800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>27500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-11600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>424800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-117800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-15400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-88500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-5700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>557100</v>
+      </c>
+      <c r="E26" s="3">
         <v>485200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>285200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>431400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>349600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>246800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>63400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>305500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>243600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>191900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>133600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>264800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>173500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>85300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-274500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>153200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-53900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>103700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>107100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E27" s="3">
         <v>466100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>260200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>395100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>310200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>212800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>258100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>202200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>162200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>118100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>232800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>168400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>77000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-288800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>139000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-72300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>106900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>98400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E32" s="3">
         <v>27400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>30100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>36300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>33100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>39700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>26100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>34700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>66000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>32500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>26200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>23500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>22100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>14100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>10200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-10300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E33" s="3">
         <v>466100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>260200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>395100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>310200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>212800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>258100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>202200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>162200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>118100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>232800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>168400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>77000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-288800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>139000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-72300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>106900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>98400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E35" s="3">
         <v>466100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>260200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>395100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>310200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>212800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>258100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>202200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>162200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>118100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>232800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>168400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>77000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-288800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>139000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-72300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>106900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>98400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3647500</v>
+      </c>
+      <c r="E41" s="3">
         <v>3175800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3068400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4040100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3698700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3495600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3551000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3520900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3310900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2717400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2662900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3399900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2212500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2613100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1848000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1660300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1143800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1387500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2754600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2523000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2253100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E42" s="3">
         <v>82800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>59400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>51100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>54000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>50700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>66500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>65100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>65200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>70600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>70200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>108600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>112300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>75900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>84300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>86500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>118200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>153600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>196700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>162200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>196600</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13698200</v>
+      </c>
+      <c r="E43" s="3">
         <v>13029500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12518900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13537100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11207200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10257700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8850900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12562500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11648000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11474800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9481000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10010500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10509900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10307200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8557600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9712800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9751000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8075700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8062800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8914800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8875200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8727800</v>
+      </c>
+      <c r="E44" s="3">
         <v>7825800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6380600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5785800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5242300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5126700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4946900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3998400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3816900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3573000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3434700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3792300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4280900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4125100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3791700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3983300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3600000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3177500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2794000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2833600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2882800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1414700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1396500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1308100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1036400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1102900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1116900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1318200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1299100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1275600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1172300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1237500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1168400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1211800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1524900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1381800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1502200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1419700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1354900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1060200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>980200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>930100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27571700</v>
+      </c>
+      <c r="E46" s="3">
         <v>25510300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23335400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24450500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21305000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>20047600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18733400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21446000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20116800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19008100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16886200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18479800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18327500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18646200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15663300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16945200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16032700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14149300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>14868400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15413900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>15137700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1193400</v>
+      </c>
+      <c r="E47" s="3">
         <v>1120400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>955300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>939200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>844200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>701700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>611300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>618200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>556300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>554700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>599900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>559700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>506600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>431900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>408700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>392900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>366600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>304700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>288500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>236300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2711600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2657000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2674900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2565700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2555100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2472500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2017100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2016100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1937900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1936400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1662900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1568900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1514700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1636000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1687600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1663500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1706600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1716100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1649400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1588100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8238900</v>
+      </c>
+      <c r="E49" s="3">
         <v>8447600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8405000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8152100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7980100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7991500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7984600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8230900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8196700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8391500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8324600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8296700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8286300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8426900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8514500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8416300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8448400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8317200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8349100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8313800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8560500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2859000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2725300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2620100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2537600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2399800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2281700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2781800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2715100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2581700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2520900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2514900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2373500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2252300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2170400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2220000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2081500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2369200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2139600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2030600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1651600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1578300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42574700</v>
+      </c>
+      <c r="E54" s="3">
         <v>40460600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>37990600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>38645100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35084200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33495000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32128200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35026300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33389400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32411600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29988500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31278600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30887400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31311400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28494200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>29499400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28923600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>26626800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>27186000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>27203800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>27084500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11492000</v>
+      </c>
+      <c r="E57" s="3">
         <v>11198200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10220800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9968000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8525700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7806100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7509700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8665800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7857700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6736700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6429800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7339800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7281900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7919600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6450800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7498200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7240100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6209100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5649900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6162700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5758900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1856900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1853800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1717600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1987100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3508300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3895400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4845600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3966000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3901700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4094900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3225900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3675300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3259700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3470000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1968700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1004200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1045200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1055400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>905600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>700600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>708200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17995800</v>
+      </c>
+      <c r="E59" s="3">
         <v>16166600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15433300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15165700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12541100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11673600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10902800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12601600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12280300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12013500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10834600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11768900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12050400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11625600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11040300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12086600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12009800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10788000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11778300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12984600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11364000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31344700</v>
+      </c>
+      <c r="E60" s="3">
         <v>29218600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27371600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27120700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24575100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23375100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23258100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>25233500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24039700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22845100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20490300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22784100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22592000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23015300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19459700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20589000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20295000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18052500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18333800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19848000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>17831000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3627000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3622000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3632800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4246500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2873000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2867400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1911400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2498400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2452800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2462800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2426800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1821200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1820100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1842200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2648700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2617700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2591300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2579200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2966700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2465200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3464100</v>
+      </c>
+      <c r="E62" s="3">
         <v>3460000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3375600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3367000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3179700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3022200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2899300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2999200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2882400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2846900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2974300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2803400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2521900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2115800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1839700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1916700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1848900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1817100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1790200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1856000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3583200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38571700</v>
+      </c>
+      <c r="E66" s="3">
         <v>36400300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34431600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34758400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30568500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29159200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>27937000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30588700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29147100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27899500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25598400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27099800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26872400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26971200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23981900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>25154000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>24769900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22489200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23118700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>24201600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>23923100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2951300</v>
+      </c>
+      <c r="E72" s="3">
         <v>2796200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2334600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2056000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1803600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1825700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1614800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1603800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1453200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1586700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1424000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1249300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1110200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1242900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1160100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1143900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1531400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1684100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1756400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1610600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1616600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4003000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4060400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3559000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3886800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4515700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4335800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4191200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4437600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4242300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4512100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4390100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4178800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4015000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4340200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4512300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4345400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4153700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4137600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4067300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3002200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3161400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E81" s="3">
         <v>466100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>260200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>395100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>310200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>212800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>258100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>202200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>162200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>118100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>232800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>168400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>77000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-288800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>139000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-72300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>106900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>98400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>313100</v>
+      </c>
+      <c r="E83" s="3">
         <v>307300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>294600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>260000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>257100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>248300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>266500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>251200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>232700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>219300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>204100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>199800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>206800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>188000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>193300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>190100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>180300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>174900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>176400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>181400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1560600</v>
+      </c>
+      <c r="E89" s="3">
         <v>447600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>601400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1962900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>771400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>317100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>431600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>538300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1381600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-141600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-478100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1547600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>67100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>336000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-753500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>210900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>363600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-577400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>207600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>345500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1558700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-97900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-111400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-71600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-50200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-68600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-71900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-75000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-76200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-86400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-37200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-61300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-55300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-44600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-56700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-177300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-181700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-154700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-343400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-191600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-279600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-197000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-214300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-285100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-237800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-215400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-303400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-181500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-217100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-103700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-197400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-173500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-103200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-92900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-743900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1323900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>93100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5793,14 +6027,14 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-102000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -5808,11 +6042,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-96400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5820,23 +6054,23 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-91400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>3300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-92300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -5844,13 +6078,16 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-85100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-717100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-179800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1224700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1524500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-387900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-91100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-69000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-157600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-524100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>512300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-86000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-165100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-317800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>691600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1071600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>395000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-525700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-66500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1318500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-117800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1014900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E101" s="3">
         <v>31100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-68900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>33800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-94800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>44700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-63500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>22000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-46200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-65000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>43000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>13700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>20600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>29300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-50800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>471700</v>
+      </c>
+      <c r="E102" s="3">
         <v>107400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-971800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>341500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>203000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-55400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>30100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>210000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>593500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>54600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-737000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1187300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>765100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>187700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>516500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-243600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1367100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>231600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>270000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>346900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20126500</v>
+      </c>
+      <c r="E8" s="3">
         <v>17868700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16929200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15630100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17245400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14518900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13347900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10579400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14102800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13522000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12512200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11710300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14035100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13379800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11912700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10638300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12938500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11760900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10012200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9578700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12168700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11231200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16771300</v>
+      </c>
+      <c r="E9" s="3">
         <v>14862900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14105500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12942200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14459300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12266400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11306500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8717600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11838200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11339400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10463800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9815100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11985500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11585700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10281100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9094300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11187500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10148400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8647600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8210200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>10573500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>9624000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3355200</v>
+      </c>
+      <c r="E10" s="3">
         <v>3005800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2823700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2687900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2786100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2252500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2041400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1861800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2264600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2182600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2048400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1895200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2049600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1794100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1631600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1544000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1751000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1612500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1364600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1368500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1595200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1607200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>549200</v>
+      </c>
+      <c r="E12" s="3">
         <v>482000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>466500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>416700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>398100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>306500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>332600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>347200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>341200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>318000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>329300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>371300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>272800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>312300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>309900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>326800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>344400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>310900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>291600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>338700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>318400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>348800</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1168,17 +1187,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1186,17 +1205,20 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>1000</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19194100</v>
+      </c>
+      <c r="E17" s="3">
         <v>17052100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16186500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15151300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16544200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13954400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12912000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10413300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13614700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13080200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12169500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11436800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13600700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13090300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11732400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10537600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12734100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11673200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10018300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9504800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>12030700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11015800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>932400</v>
+      </c>
+      <c r="E18" s="3">
         <v>816600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>742700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>478800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>701200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>564500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>435900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>166100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>488100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>441800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>342700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>273500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>434400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>289500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>180300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>204400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>87700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>73900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>138000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>215400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-27400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-30100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-36300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-33100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-39700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-26100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-34700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-66000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-32500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-23500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-14100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-9300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-10200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>10300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1237700</v>
+      </c>
+      <c r="E21" s="3">
         <v>1123000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1022700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>743300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>924900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>788500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>644500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>406600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>704700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>608500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>529500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>451400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>610700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>474200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>356300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>279800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>382000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>258700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>158500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>247700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>329700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E22" s="3">
         <v>67700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>65100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>68500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>73400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>61000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>64100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>62800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>63200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>65700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>70100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>67100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>60600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>54200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>55500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>49700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>41600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>43100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>52900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>56100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>46900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>855200</v>
+      </c>
+      <c r="E23" s="3">
         <v>742100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>650200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>380300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>591500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>470400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>332100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>77300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>390200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>310100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>240100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>180200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>350300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>213300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>112800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>36800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>150300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>35300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-69300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>15200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>101300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>173500</v>
+      </c>
+      <c r="E24" s="3">
         <v>185100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>165100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>95100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>160000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>120800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>85300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>84700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>66400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>48200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>46700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>85500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>39800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>27500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-11600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>424800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-117800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-15400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-88500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-5700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>681700</v>
+      </c>
+      <c r="E26" s="3">
         <v>557100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>485200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>285200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>431400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>349600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>246800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>63400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>305500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>243600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>191900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>133600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>264800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>173500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>85300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-274500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>153200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-53900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>103700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>107100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>639600</v>
+      </c>
+      <c r="E27" s="3">
         <v>512000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>466100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>260200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>395100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>310200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>212800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>42600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>258100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>202200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>162200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>118100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>232800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>168400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>77000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>32700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-288800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>139000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-72300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>106900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>98400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E32" s="3">
         <v>6700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>27400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>30100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>36300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>33100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>39700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>26100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>34700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>66000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>32500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>23500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>22100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>14100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>9300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>10200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-10300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>639600</v>
+      </c>
+      <c r="E33" s="3">
         <v>512000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>466100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>260200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>395100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>310200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>212800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>42600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>258100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>202200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>162200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>118100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>232800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>168400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>77000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>32700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-288800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>139000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-72300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>106900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>98400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>639600</v>
+      </c>
+      <c r="E35" s="3">
         <v>512000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>466100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>260200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>395100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>310200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>212800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>42600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>258100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>202200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>162200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>118100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>232800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>168400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>77000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>32700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-288800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>139000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-72300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>106900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>98400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3756500</v>
+      </c>
+      <c r="E41" s="3">
         <v>3647500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3175800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3068400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4040100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3698700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3495600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3551000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3520900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3310900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2717400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2662900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3399900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2212500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2613100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1848000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1660300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1143800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1387500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2754600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2523000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2253100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E42" s="3">
         <v>83500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>82800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>59400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>51100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>54000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>50700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>66500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>65100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>65200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>70600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>70200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>108600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>112300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>75900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>84300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>86500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>118200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>153600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>196700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>162200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>196600</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16798400</v>
+      </c>
+      <c r="E43" s="3">
         <v>13698200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13029500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12518900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13537100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11207200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10257700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8850900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12562500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11648000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11474800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9481000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10010500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10509900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10307200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8557600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9712800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9751000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8075700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8062800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8914800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8875200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8441600</v>
+      </c>
+      <c r="E44" s="3">
         <v>8727800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7825800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6380600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5785800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5242300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5126700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4946900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3998400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3816900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3573000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3434700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3792300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4280900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4125100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3791700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3983300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3600000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3177500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2794000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2833600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2882800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1413800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1414700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1396500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1308100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1036400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1102900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1116900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1318200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1299100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1275600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1172300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1237500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1168400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1211800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1524900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1381800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1502200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1419700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1354900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1060200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>980200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>930100</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30482800</v>
+      </c>
+      <c r="E46" s="3">
         <v>27571700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25510300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23335400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24450500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21305000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20047600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18733400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21446000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20116800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19008100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16886200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18479800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18327500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18646200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15663300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16945200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16032700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>14149300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>14868400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>15413900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>15137700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1293600</v>
+      </c>
+      <c r="E47" s="3">
         <v>1193400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1120400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>955300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>939200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>844200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>701700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>611300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>618200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>556300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>554700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>599900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>559700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>506600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>431900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>408700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>392900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>366600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>304700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>288500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>236300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2834000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2711600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2657000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2674900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2565700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2555100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2472500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2017100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2016100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1937900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1936400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1662900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1568900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1514700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1636000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1687600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1663500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1706600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1716100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1649400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1588100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8138300</v>
+      </c>
+      <c r="E49" s="3">
         <v>8238900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8447600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8405000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8152100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7980100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7991500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7984600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8230900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8196700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8391500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8324600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8296700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8286300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8426900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8514500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8416300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8448400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8317200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8349100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8313800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>8560500</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2897500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2859000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2725300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2620100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2537600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2399800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2281700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2781800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2715100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2581700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2520900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2514900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2373500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2252300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2170400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2220000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2081500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2369200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2139600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2030600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1651600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1578300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45646200</v>
+      </c>
+      <c r="E54" s="3">
         <v>42574700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40460600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>37990600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>38645100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>35084200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33495000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>32128200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35026300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33389400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32411600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29988500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31278600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30887400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31311400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28494200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>29499400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28923600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>26626800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>27186000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>27203800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>27084500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12516700</v>
+      </c>
+      <c r="E57" s="3">
         <v>11492000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11198200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10220800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9968000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8525700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7806100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7509700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8665800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7857700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6736700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6429800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7339800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7281900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7919600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6450800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7498200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7240100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6209100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5649900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6162700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5758900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1637700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1856900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1853800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1717600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1987100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3508300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3895400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4845600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3966000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3901700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4094900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3225900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3675300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3259700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3470000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1968700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1004200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1045200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1055400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>905600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>700600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>708200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19546000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17995800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16166600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15433300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15165700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12541100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11673600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10902800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12601600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12280300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12013500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10834600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11768900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12050400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11625600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11040300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12086600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12009800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10788000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11778300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12984600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11364000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33700300</v>
+      </c>
+      <c r="E60" s="3">
         <v>31344700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29218600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27371600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27120700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24575100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23375100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23258100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25233500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24039700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22845100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20490300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22784100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22592000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23015300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19459700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20589000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>20295000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18052500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>18333800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19848000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>17831000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3619300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3627000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3622000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3632800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4246500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2873000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2867400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1911400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2498400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2452800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2462800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2426800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1821200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1820100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1842200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2648700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2617700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2591300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2579200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2966700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2465200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3534700</v>
+      </c>
+      <c r="E62" s="3">
         <v>3464100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3460000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3375600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3367000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3179700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3022200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2899300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2999200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2882400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2846900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2974300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2803400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2521900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2115800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1839700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1916700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1848900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1817100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1790200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1856000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3583200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41162200</v>
+      </c>
+      <c r="E66" s="3">
         <v>38571700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>36400300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34431600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34758400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30568500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29159200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27937000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30588700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29147100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27899500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25598400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27099800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26872400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26971200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23981900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25154000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>24769900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>22489200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>23118700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>24201600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>23923100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3460100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2951300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2796200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2334600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2056000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1803600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1825700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1614800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1603800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1453200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1586700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1424000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1249300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1110200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1242900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1160100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1143900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1531400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1684100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1756400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1610600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1616600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4484000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4003000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4060400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3559000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3886800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4515700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4335800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4191200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4437600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4242300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4512100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4390100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4178800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4015000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4340200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4512300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4345400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4153700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4137600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4067300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3002200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3161400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>639600</v>
+      </c>
+      <c r="E81" s="3">
         <v>512000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>466100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>260200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>395100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>310200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>212800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>42600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>258100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>202200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>162200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>118100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>232800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>168400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>77000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>32700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-288800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>139000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-72300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>106900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>98400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>317400</v>
+      </c>
+      <c r="E83" s="3">
         <v>313100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>307300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>294600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>260000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>257100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>248300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>266500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>251200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>232700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>219300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>204100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>199800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>206800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>188000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>193300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>190100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>180300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>174900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>176400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>181400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>606300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1560600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>447600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>601400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1962900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>771400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>317100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>431600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>538300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1381600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-141600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-478100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1547600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>67100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>336000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-753500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>210900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>363600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-577400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>207600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>345500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1558700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-74100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-97900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-111400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-71600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-69600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-50200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-68600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-71900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-75000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-76200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-86400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-37200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-61300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-55300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-44600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-56700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-177300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-181700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-154700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-389300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-343400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-191600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-279600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-197000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-214300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-285100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-237800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-215400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-303400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-181500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-217100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-103700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-197400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-173500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-103200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-92900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-743900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1323900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>93100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,26 +6250,27 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-119800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-102000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -6045,11 +6278,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-96400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6057,23 +6290,23 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-91400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>3300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-92300</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6081,13 +6314,16 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-85100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-110400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-717100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-179800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1224700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1524500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-387900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-91100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-69000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-157600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-524100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>512300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-86000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-165100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-317800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>691600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1071600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>395000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-525700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-66500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1318500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-117800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1014900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-28500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>31100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-68900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>33800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-94800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>44700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-63500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>22000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-65000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>43000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>13700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>20600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>29300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-50800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E102" s="3">
         <v>471700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>107400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-971800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>341500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>203000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-55400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>30100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>210000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>593500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>54600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-737000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1187300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>765100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>187700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>516500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-243600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1367100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>231600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>270000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>346900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16955600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16693800</v>
+      </c>
+      <c r="F8" s="3">
         <v>20126500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>17868700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>16929200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>15630100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>17245400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>14518900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>13347900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10579400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>14102800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>13522000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>12512200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>11710300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>14035100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>13379800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>11912700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>10638300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>12938500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>11760900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>10012200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>9578700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>12168700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>11231200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14086700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13829500</v>
+      </c>
+      <c r="F9" s="3">
         <v>16771300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>14862900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>14105500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>12942200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>14459300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>12266400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11306500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8717600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11838200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>11339400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>10463800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>9815100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11985500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>11585700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>10281100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>9094300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>11187500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>10148400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>8647600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>8210200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>10573500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>9624000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2868900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2864300</v>
+      </c>
+      <c r="F10" s="3">
         <v>3355200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3005800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2823700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2687900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2786100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2252500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2041400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1861800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2264600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2182600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2048400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1895200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2049600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1794100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1631600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1544000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1751000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1612500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1364600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1368500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1595200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1607200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>511400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>575800</v>
+      </c>
+      <c r="F12" s="3">
         <v>549200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>482000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>466500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>416700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>398100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>306500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>332600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>347200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>341200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>318000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>329300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>371300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>272800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>312300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>309900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>326800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>344400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>310900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>291600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>338700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>318400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>348800</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1190,35 +1230,41 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1000</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16178400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16105000</v>
+      </c>
+      <c r="F17" s="3">
         <v>19194100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>17052100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>16186500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>15151300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>16544200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>13954400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>12912000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10413300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>13614700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>13080200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>12169500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>11436800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>13600700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>13090300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>11732400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>10537600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>12734100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>11673200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>10018300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>9504800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>12030700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>11015800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>777200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>588800</v>
+      </c>
+      <c r="F18" s="3">
         <v>932400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>816600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>742700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>478800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>701200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>564500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>435900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>166100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>488100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>441800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>342700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>273500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>434400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>289500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>180300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>100700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>204400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>87700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-6100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>73900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>138000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>215400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1547,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-12100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-6700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-27400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-30100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-36300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-33100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-39700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-26100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-34700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-66000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-32500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-26200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-22100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-12000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-14100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-12500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-9300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-10200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-2500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>10300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1084000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>907400</v>
+      </c>
+      <c r="F21" s="3">
         <v>1237700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1123000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1022700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>743300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>924900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>788500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>644500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>406600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>704700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>608500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>529500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>451400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>610700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>474200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>356300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>279800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>382000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>258700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>158500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>247700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>329700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65100</v>
+        <v>62100</v>
       </c>
       <c r="E22" s="3">
-        <v>67700</v>
+        <v>60600</v>
       </c>
       <c r="F22" s="3">
         <v>65100</v>
       </c>
       <c r="G22" s="3">
+        <v>67700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>65100</v>
+      </c>
+      <c r="I22" s="3">
         <v>68500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>73400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>61000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>64100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>62800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>63200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>65700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>70100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>67100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>60600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>54200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>55500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>49700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>41600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>43100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>52900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>56100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>46900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>690500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>520200</v>
+      </c>
+      <c r="F23" s="3">
         <v>855200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>742100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>650200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>380300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>591500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>470400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>332100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>77300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>390200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>310100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>240100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>180200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>350300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>213300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>112800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>36800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>150300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>35300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-69300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>15200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>101300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>98800</v>
+      </c>
+      <c r="F24" s="3">
         <v>173500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>185100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>165100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>95100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>160000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>120800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>85300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>13900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>84700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>66400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>48200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>46700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>85500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>39800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>27500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-11600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>424800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-117800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-15400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-88500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>539500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>421400</v>
+      </c>
+      <c r="F26" s="3">
         <v>681700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>557100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>485200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>285200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>431400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>349600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>246800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>63400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>305500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>243600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>191900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>133600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>264800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>173500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>85300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>48400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-274500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>153200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-53900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>103700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>107100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>515700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>412200</v>
+      </c>
+      <c r="F27" s="3">
         <v>639600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>512000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>466100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>260200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>395100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>310200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>212800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>42600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>258100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>202200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>162200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>118100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>232800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>168400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>77000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>32700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-288800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>139000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-72300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>106900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>98400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F32" s="3">
         <v>12100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>6700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>27400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>30100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>36300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>33100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>39700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>26100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>34700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>66000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>32500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>26200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>23500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>22100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>12000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>14100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>12500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>9300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>10200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>2500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>515700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>412200</v>
+      </c>
+      <c r="F33" s="3">
         <v>639600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>512000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>466100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>260200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>395100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>310200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>212800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>42600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>258100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>202200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>162200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>118100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>232800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>168400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>77000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>32700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-288800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>139000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-72300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>106900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>98400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>515700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>412200</v>
+      </c>
+      <c r="F35" s="3">
         <v>639600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>512000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>466100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>260200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>395100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>310200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>212800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>42600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>258100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>202200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>162200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>118100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>232800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>168400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>77000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>32700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-288800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>139000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-72300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>106900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>98400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2919,703 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3788100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3930300</v>
+      </c>
+      <c r="F41" s="3">
         <v>3756500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3647500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3175800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3068400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4040100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3698700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3495600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3551000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3520900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3310900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2717400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2662900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3399900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2212500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2613100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1848000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1660300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1143800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1387500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2754600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2523000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2253100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>92500</v>
+      </c>
+      <c r="F42" s="3">
         <v>72500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>83500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>82800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>59400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>51100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>54000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>50700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>66500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>65100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>65200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>70600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>70200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>108600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>112300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>75900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>84300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>86500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>118200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>153600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>196700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>162200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>196600</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14797200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>15244900</v>
+      </c>
+      <c r="F43" s="3">
         <v>16798400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>13698200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>13029500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>12518900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>13537100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>11207200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>10257700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>8850900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>12562500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>11648000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>11474800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>9481000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>10010500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>10509900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>10307200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>8557600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>9712800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>9751000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>8075700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>8062800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>8914800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>8875200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8867700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>8300700</v>
+      </c>
+      <c r="F44" s="3">
         <v>8441600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>8727800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>7825800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>6380600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>5785800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>5242300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>5126700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4946900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3998400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3816900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3573000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3434700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3792300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>4280900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>4125100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>3791700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>3983300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>3600000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>3177500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>2794000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>2833600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>2882800</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1594500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1428500</v>
+      </c>
+      <c r="F45" s="3">
         <v>1413800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1414700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1396500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1308100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1036400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1102900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1116900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1318200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1299100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1275600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1172300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1237500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1168400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1211800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1524900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1381800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1502200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1419700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1354900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1060200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>980200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>930100</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>29105000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>28996900</v>
+      </c>
+      <c r="F46" s="3">
         <v>30482800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>27571700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>25510300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>23335400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>24450500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>21305000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>20047600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>18733400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>21446000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>20116800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>19008100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>16886200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>18479800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>18327500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>18646200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>15663300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>16945200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>16032700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>14149300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>14868400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>15413900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>15137700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1543800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1508500</v>
+      </c>
+      <c r="F47" s="3">
         <v>1293600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1193400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1120400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>955300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>939200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>844200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>701700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>611300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>618200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>556300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>554700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>599900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>559700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>506600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>431900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>408700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>392900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>366600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>304700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>288500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>236300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2846700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2986100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2834000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2711600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2657000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2674900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2565700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2555100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2472500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2017100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2016100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1937900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1936400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1662900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1568900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1514700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1636000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1687600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1663500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1706600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1716100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1649400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1588100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7849700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8066800</v>
+      </c>
+      <c r="F49" s="3">
         <v>8138300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>8238900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>8447600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>8405000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>8152100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>7980100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>7991500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7984600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>8230900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>8196700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>8391500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>8324600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>8296700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>8286300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>8426900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>8514500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>8416300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>8448400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>8317200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>8349100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>8313800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>8560500</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2903300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2952200</v>
+      </c>
+      <c r="F52" s="3">
         <v>2897500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2859000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2725300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2620100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2537600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2399800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2281700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2781800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2715100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2581700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2520900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2514900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2373500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2252300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2170400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2220000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>2081500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2369200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>2139600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>2030600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1651600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1578300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44248500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>44510400</v>
+      </c>
+      <c r="F54" s="3">
         <v>45646200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>42574700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>40460600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>37990600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>38645100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>35084200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>33495000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>32128200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>35026300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>33389400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>32411600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>29988500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>31278600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>30887400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>31311400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>28494200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>29499400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>28923600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>26626800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>27186000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>27203800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>27084500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +4055,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11505300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11035900</v>
+      </c>
+      <c r="F57" s="3">
         <v>12516700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>11492000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>11198200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>10220800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>9968000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8525700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7806100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7509700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>8665800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7857700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6736700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6429800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>7339800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>7281900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>7919600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>6450800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>7498200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>7240100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>6209100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>5649900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>6162700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>5758900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3067600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3081900</v>
+      </c>
+      <c r="F58" s="3">
         <v>1637700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1856900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1853800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1717600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1987100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3508300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3895400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4845600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3966000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3901700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4094900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3225900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3675300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3259700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3470000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1968700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1004200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1045200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1055400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>905600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>700600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>708200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18396800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>18640900</v>
+      </c>
+      <c r="F59" s="3">
         <v>19546000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>17995800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>16166600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>15433300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>15165700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>12541100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11673600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>10902800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>12601600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>12280300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>12013500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>10834600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>11768900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>12050400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>11625600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>11040300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>12086600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>12009800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>10788000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>11778300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>12984600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>11364000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32969700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>32758700</v>
+      </c>
+      <c r="F60" s="3">
         <v>33700300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>31344700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>29218600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>27371600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>27120700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>24575100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>23375100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>23258100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>25233500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>24039700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>22845100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>20490300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>22784100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>22592000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>23015300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>19459700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>20589000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>20295000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>18052500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>18333800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>19848000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>17831000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2890000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2896300</v>
+      </c>
+      <c r="F61" s="3">
         <v>3619300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3627000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3622000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3632800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4246500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2873000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2867400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1911400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2498400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2452800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2462800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2426800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1821200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1820100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1842200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2648700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2617700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2591300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2579200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2966700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2465200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2803700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3460800</v>
+      </c>
+      <c r="F62" s="3">
         <v>3534700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3464100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3460000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3375600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3367000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3179700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3022200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2899300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2999200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2882400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2846900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2974300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2803400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2521900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2115800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1839700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1916700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1848900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1817100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1790200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1856000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>3583200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39068600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>39519800</v>
+      </c>
+      <c r="F66" s="3">
         <v>41162200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>38571700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>36400300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>34431600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>34758400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>30568500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>29159200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>27937000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>30588700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>29147100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>27899500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>25598400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>27099800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>26872400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>26971200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>23981900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>25154000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>24769900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>22489200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>23118700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>24201600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>23923100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4356700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3841000</v>
+      </c>
+      <c r="F72" s="3">
         <v>3460100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2951300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2796200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2334600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2056000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1803600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1825700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1614800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1603800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1453200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1586700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1424000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1249300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1110200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1242900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1160100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1143900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1531400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1684100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1756400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1610600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1616600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5179900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4990600</v>
+      </c>
+      <c r="F76" s="3">
         <v>4484000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4003000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4060400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3559000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3886800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4515700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4335800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4191200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4437600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4242300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4512100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4390100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4178800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4015000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4340200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4512300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4345400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4153700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>4137600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>4067300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3002200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>3161400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>515700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>412200</v>
+      </c>
+      <c r="F81" s="3">
         <v>639600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>512000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>466100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>260200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>395100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>310200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>212800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>42600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>258100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>202200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>162200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>118100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>232800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>168400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>77000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>32700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-288800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>139000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-72300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>106900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>98400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5812,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>331400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>326600</v>
+      </c>
+      <c r="F83" s="3">
         <v>317400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>313100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>307300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>294600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>260000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>257100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>248300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>266500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>251200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>232700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>219300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>204100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>199800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>206800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>188000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>193300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>190100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>180300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>174900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>176400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>181400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>398700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1462500</v>
+      </c>
+      <c r="F89" s="3">
         <v>606300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1560600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>447600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>601400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1962900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>771400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>317100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>431600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>538300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1381600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-141600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-478100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1547600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>67100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>336000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-753500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>210900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>363600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-577400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>207600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>345500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1558700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-93100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-134800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-89600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-74100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-97900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-111400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-71600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-69600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-50200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-68600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-71900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-75000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-31200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-76200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-86400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-34900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-37200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-61300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-55300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-44600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-56700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-177300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-181700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-154700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-387800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-574100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-389300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-343400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-191600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-279600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-197000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-214300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-285100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-237800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-215400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-303400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-181500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-217100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-103700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-197400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-173500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-103200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-92900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-743900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1323900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>93100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-200800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6717,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-119800</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-102000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-96400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-91400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>3300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-92300</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-85100</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-750100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-110400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-717100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-179800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1224700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1524500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-387900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-91100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-69000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-157600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-524100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>512300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-86000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-165100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-317800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>691600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1071600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>395000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-525700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-66500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1318500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-117800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1014900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-144700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>35600</v>
+      </c>
+      <c r="F101" s="3">
         <v>2400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-28500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>31100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-68900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>33800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-94800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>44700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-63500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-12800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>8500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>22000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-46200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-65000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>43000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>13700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>11400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>20600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>29300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-50800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-142200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>173800</v>
+      </c>
+      <c r="F102" s="3">
         <v>109000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>471700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>107400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-971800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>341500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>203000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-55400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>30100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>210000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>593500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>54600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-737000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1187300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-400600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>765100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>187700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>516500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-243600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1367100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>231600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>270000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>346900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15266600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>17089500</v>
+      </c>
+      <c r="F8" s="3">
         <v>16955600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>16693800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>20126500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>17868700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>16929200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>15630100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>17245400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>14518900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>13347900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>10579400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>14102800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>13522000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>12512200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>11710300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>14035100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>13379800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>11912700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>10638300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>12938500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>11760900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>10012200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>9578700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>12168700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>11231200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12654400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>14213000</v>
+      </c>
+      <c r="F9" s="3">
         <v>14086700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>13829500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>16771300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>14862900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>14105500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>12942200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>14459300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>12266400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11306500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>8717600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11838200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>11339400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>10463800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>9815100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>11985500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>11585700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>10281100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>9094300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>11187500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>10148400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>8647600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>8210200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>10573500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>9624000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2612200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2876500</v>
+      </c>
+      <c r="F10" s="3">
         <v>2868900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2864300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3355200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>3005800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2823700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2687900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2786100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2252500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2041400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1861800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2264600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2182600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2048400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1895200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2049600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1794100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1631600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1544000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1751000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1612500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1364600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1368500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1595200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1607200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1057,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>578600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>555700</v>
+      </c>
+      <c r="F12" s="3">
         <v>511400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>575800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>549200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>482000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>466500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>416700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>398100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>306500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>332600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>347200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>341200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>318000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>329300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>371300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>272800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>312300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>309900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>326800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>344400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>310900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>291600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>338700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>318400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>348800</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1236,35 +1275,41 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>1000</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14516700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16238600</v>
+      </c>
+      <c r="F17" s="3">
         <v>16178400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>16105000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>19194100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>17052100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>16186500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>15151300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>16544200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>13954400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12912000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10413300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>13614700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>13080200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>12169500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>11436800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>13600700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>13090300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>11732400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>10537600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>12734100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>11673200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>10018300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>9504800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>12030700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>11015800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>750000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>850900</v>
+      </c>
+      <c r="F18" s="3">
         <v>777200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>588800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>932400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>816600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>742700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>478800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>701200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>564500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>435900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>166100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>488100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>441800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>342700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>273500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>434400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>289500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>180300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>100700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>204400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>87700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>73900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>138000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>215400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1614,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-24600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-8100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-12100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-6700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-27400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-30100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-36300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-33100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-39700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-26100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-34700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-66000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-26200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-23500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-22100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-12000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-14100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-12500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-9300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-10200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>10300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1040400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1137900</v>
+      </c>
+      <c r="F21" s="3">
         <v>1084000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>907400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1237700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1123000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1022700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>743300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>924900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>788500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>644500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>406600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>704700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>608500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>529500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>451400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>610700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>474200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>356300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>279800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>382000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>258700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>158500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>247700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>329700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>94300</v>
+      </c>
+      <c r="F22" s="3">
         <v>62100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>60600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>65100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>67700</v>
       </c>
       <c r="H22" s="3">
         <v>65100</v>
       </c>
       <c r="I22" s="3">
+        <v>67700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K22" s="3">
         <v>68500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>73400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>61000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>64100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>62800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>63200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>65700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>70100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>67100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>60600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>54200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>55500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>49700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>41600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>43100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>52900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>56100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>46900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>710100</v>
+      </c>
+      <c r="F23" s="3">
         <v>690500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>520200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>855200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>742100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>650200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>380300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>591500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>470400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>332100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>77300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>390200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>310100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>240100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>180200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>350300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>213300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>112800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>36800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>150300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>35300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-69300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>15200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>101300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>123100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>156200</v>
+      </c>
+      <c r="F24" s="3">
         <v>151000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>98800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>173500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>185100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>165100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>95100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>160000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>120800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>85300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>13900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>84700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>66400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>48200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>46700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>85500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>39800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>27500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-11600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>424800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-117800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-15400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-88500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>481900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>553800</v>
+      </c>
+      <c r="F26" s="3">
         <v>539500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>421400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>681700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>557100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>485200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>285200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>431400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>349600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>246800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>63400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>305500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>243600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>191900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>133600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>264800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>173500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>85300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>48400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-274500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>153200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-53900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>103700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>107100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>437200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>541200</v>
+      </c>
+      <c r="F27" s="3">
         <v>515700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>412200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>639600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>512000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>466100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>260200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>395100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>310200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>212800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>42600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>258100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>202200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>162200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>118100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>232800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>168400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>77000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>32700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-288800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>139000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-72300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>106900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>98400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>46500</v>
+      </c>
+      <c r="F32" s="3">
         <v>24600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>8100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>12100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>6700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>27400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>30100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>36300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>33100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>39700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>26100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>34700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>66000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>32500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>26200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>23500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>22100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>12000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>14100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>12500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>9300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>10200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>2500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>437200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>541200</v>
+      </c>
+      <c r="F33" s="3">
         <v>515700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>412200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>639600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>512000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>466100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>260200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>395100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>310200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>212800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>42600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>258100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>202200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>162200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>118100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>232800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>168400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>77000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>32700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-288800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>139000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-72300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>106900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>98400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>437200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>541200</v>
+      </c>
+      <c r="F35" s="3">
         <v>515700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>412200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>639600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>512000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>466100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>260200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>395100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>310200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>212800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>42600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>258100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>202200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>162200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>118100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>232800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>168400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>77000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>32700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-288800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>139000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-72300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>106900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>98400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3092,757 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5018900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5567400</v>
+      </c>
+      <c r="F41" s="3">
         <v>3788100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3930300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3756500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3647500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3175800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3068400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4040100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3698700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3495600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3551000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3520900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3310900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2717400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2662900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3399900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2212500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2613100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1848000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1660300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1143800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1387500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2754600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>2523000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>2253100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>60400</v>
+      </c>
+      <c r="F42" s="3">
         <v>57600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>92500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>72500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>83500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>82800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>59400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>51100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>54000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>50700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>66500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>65100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>65200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>70600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>70200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>108600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>112300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>75900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>84300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>86500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>118200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>153600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>196700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>162200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>196600</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11854000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>12346700</v>
+      </c>
+      <c r="F43" s="3">
         <v>14797200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>15244900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>16798400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>13698200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>13029500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>12518900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>13537100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>11207200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>10257700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>8850900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>12562500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>11648000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>11474800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>9481000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>10010500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>10509900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>10307200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>8557600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>9712800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>9751000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>8075700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>8062800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>8914800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>8875200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7502100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>8417900</v>
+      </c>
+      <c r="F44" s="3">
         <v>8867700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>8300700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>8441600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>8727800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>7825800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>6380600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>5785800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>5242300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5126700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>4946900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3998400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3816900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3573000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3434700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3792300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>4280900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>4125100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>3791700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>3983300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>3600000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>3177500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>2794000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>2833600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>2882800</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1695300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1725700</v>
+      </c>
+      <c r="F45" s="3">
         <v>1594500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1428500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1413800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1414700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1396500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1308100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1036400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1102900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1116900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1318200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1299100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1275600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1172300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1237500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1168400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1211800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1524900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1381800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1502200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1419700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>1354900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1060200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>980200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>930100</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26132000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>28118100</v>
+      </c>
+      <c r="F46" s="3">
         <v>29105000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>28996900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>30482800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>27571700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>25510300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>23335400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>24450500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>21305000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>20047600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>18733400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>21446000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>20116800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>19008100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>16886200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>18479800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>18327500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>18646200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>15663300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>16945200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>16032700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>14149300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>14868400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>15413900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>15137700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1673800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1554800</v>
+      </c>
+      <c r="F47" s="3">
         <v>1543800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1508500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1293600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1193400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1120400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>955300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>939200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>844200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>701700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>611300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>618200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>556300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>554700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>599900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>559700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>506600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>431900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>408700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>392900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>366600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>304700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>288500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>236300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3174200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2788700</v>
+      </c>
+      <c r="F48" s="3">
         <v>2846700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2986100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2834000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2711600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2657000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2674900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2565700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2555100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2472500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2017100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2016100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1937900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1936400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1662900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1568900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1514700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1636000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1687600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1663500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1706600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1716100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1649400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1588100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8184600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8048700</v>
+      </c>
+      <c r="F49" s="3">
         <v>7849700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>8066800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>8138300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>8238900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>8447600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>8405000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>8152100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7980100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7991500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>7984600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>8230900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>8196700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>8391500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>8324600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>8296700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>8286300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>8426900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>8514500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>8416300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>8448400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>8317200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>8349100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>8313800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>8560500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2584100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2783200</v>
+      </c>
+      <c r="F52" s="3">
         <v>2903300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2952200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2897500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2859000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2725300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2620100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2537600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2399800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2281700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2781800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2715100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2581700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2520900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2514900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2373500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2252300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>2170400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2220000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>2081500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>2369200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>2139600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>2030600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>1651600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>1578300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41748600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>43293500</v>
+      </c>
+      <c r="F54" s="3">
         <v>44248500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>44510400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>45646200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>42574700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>40460600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>37990600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>38645100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>35084200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>33495000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>32128200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>35026300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>33389400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>32411600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>29988500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>31278600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>30887400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>31311400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>28494200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>29499400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>28923600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>26626800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>27186000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>27203800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>27084500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4316,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7899600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>12348700</v>
+      </c>
+      <c r="F57" s="3">
         <v>11505300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>11035900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>12516700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>11492000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>11198200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>10220800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>9968000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8525700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7806100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7509700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>8665800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7857700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6736700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>6429800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>7339800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>7281900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>7919600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>6450800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>7498200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>7240100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>6209100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>5649900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>6162700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>5758900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3674300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>753100</v>
+      </c>
+      <c r="F58" s="3">
         <v>3067600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3081900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1637700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1856900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1853800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1717600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1987100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3508300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3895400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4845600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3966000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3901700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4094900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3225900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3675300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3259700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3470000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1968700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1004200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1045200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1055400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>905600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>700600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>708200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17343400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>17673600</v>
+      </c>
+      <c r="F59" s="3">
         <v>18396800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>18640900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>19546000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>17995800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>16166600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>15433300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>15165700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>12541100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11673600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>10902800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>12601600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>12280300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>12013500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>10834600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>11768900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>12050400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>11625600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>11040300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>12086600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>12009800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>10788000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>11778300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>12984600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>11364000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28917200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>30775300</v>
+      </c>
+      <c r="F60" s="3">
         <v>32969700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>32758700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>33700300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>31344700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>29218600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>27371600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>27120700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>24575100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>23375100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>23258100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>25233500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>24039700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>22845100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>20490300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>22784100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>22592000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>23015300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>19459700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>20589000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>20295000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>18052500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>18333800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>19848000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>17831000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4180700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4185100</v>
+      </c>
+      <c r="F61" s="3">
         <v>2890000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2896300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3619300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3627000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3622000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3632800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4246500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2873000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2867400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1911400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2498400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2452800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2462800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2426800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1821200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1820100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1842200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2648700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2617700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2591300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2579200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2966700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>2465200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2847200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2706100</v>
+      </c>
+      <c r="F62" s="3">
         <v>2803700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3460800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3534700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3464100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3460000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3375600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3367000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3179700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3022200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2899300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2999200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2882400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2846900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2974300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2803400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2521900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>2115800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1839700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1916700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1848900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1817100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1790200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1856000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>3583200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36424100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>38109200</v>
+      </c>
+      <c r="F66" s="3">
         <v>39068600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>39519800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>41162200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>38571700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>36400300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>34431600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>34758400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>30568500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>29159200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>27937000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>30588700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>29147100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>27899500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>25598400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>27099800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>26872400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>26971200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>23981900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>25154000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>24769900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>22489200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>23118700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>24201600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>23923100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4824900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4473200</v>
+      </c>
+      <c r="F72" s="3">
         <v>4356700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>3841000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3460100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2951300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2796200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2334600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2056000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1803600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1825700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1614800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1603800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1453200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1586700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1424000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1249300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1110200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1242900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1160100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1143900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1531400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1684100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1756400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1610600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1616600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5324600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5184300</v>
+      </c>
+      <c r="F76" s="3">
         <v>5179900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4990600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4484000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4003000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4060400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3559000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3886800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4515700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4335800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4191200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4437600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4242300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4512100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4390100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4178800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4015000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4340200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4512300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>4345400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>4153700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>4137600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>4067300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>3002200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>3161400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>437200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>541200</v>
+      </c>
+      <c r="F81" s="3">
         <v>515700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>412200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>639600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>512000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>466100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>260200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>395100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>310200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>212800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>42600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>258100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>202200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>162200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>118100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>232800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>168400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>77000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>32700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-288800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>139000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-72300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>106900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>98400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6209,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>350300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>333500</v>
+      </c>
+      <c r="F83" s="3">
         <v>331400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>326600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>317400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>313100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>307300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>294600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>260000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>257100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>248300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>266500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>251200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>232700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>219300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>204100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>199800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>206800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>188000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>193300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>190100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>180300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>174900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>176400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>181400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2084300</v>
+      </c>
+      <c r="F89" s="3">
         <v>398700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1462500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>606300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1560600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>447600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>601400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1962900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>771400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>317100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>431600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>538300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1381600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-141600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-478100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1547600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>67100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>336000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-753500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>210900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>363600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-577400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>207600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>345500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>1558700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-97700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-93100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-134800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-89600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-74100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-97900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-111400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-71600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-69600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-50200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-68600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-71900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-75000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-31200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-76200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-86400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-34900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-37200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-61300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-55300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-44600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-56700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-177300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-181700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-154700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-407200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-806000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-387800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-574100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-389300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-343400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-191600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-279600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-197000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-214300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-285100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-237800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-215400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-200400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-303400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-181500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-217100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-103700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-197400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-173500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-103200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-92900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-743900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-1323900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>93100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-200800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +7184,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-123400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-119800</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-102000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-96400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-91400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>3300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-92300</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-85100</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7512,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-301500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>625300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-8500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-750100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-110400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-717100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-179800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1224700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1524500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-387900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-91100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-69000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-157600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-524100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>512300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-86000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-165100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-317800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>691600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1071600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>395000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-525700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-66500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>1318500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-117800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-1014900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-124300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-144700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>35600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>2400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-28500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>31100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-68900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>33800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-94800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>44700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-63500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>8500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>22000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-46200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-65000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>43000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>13700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>11400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>20600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>29300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-50800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-548500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1779300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-142200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>173800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>109000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>471700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>107400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-971800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>341500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>203000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-55400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>30100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>210000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>593500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>54600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-737000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1187300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-400600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>765100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>187700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>516500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-243600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1367100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>231600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>270000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>346900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
@@ -6829,25 +6829,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-97700</v>
+        <v>-434400</v>
       </c>
       <c r="E91" s="3">
-        <v>-100800</v>
+        <v>-383400</v>
       </c>
       <c r="F91" s="3">
-        <v>-93100</v>
+        <v>-386200</v>
       </c>
       <c r="G91" s="3">
-        <v>-134800</v>
+        <v>-364500</v>
       </c>
       <c r="H91" s="3">
-        <v>-89600</v>
+        <v>-361800</v>
       </c>
       <c r="I91" s="3">
-        <v>-74100</v>
+        <v>-278500</v>
       </c>
       <c r="J91" s="3">
-        <v>-97900</v>
+        <v>-279300</v>
       </c>
       <c r="K91" s="3">
         <v>-111400</v>

--- a/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNVGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12899900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12635100</v>
+      </c>
+      <c r="F8" s="3">
         <v>15266600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>17089500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>16955600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>16693800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>20126500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>17868700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>16929200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>15630100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>17245400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>14518900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>13347900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>10579400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>14102800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>13522000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>12512200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>11710300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>14035100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>13379800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>11912700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>10638300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>12938500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>11760900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>10012200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>9578700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>12168700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>11231200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10648000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10491700</v>
+      </c>
+      <c r="F9" s="3">
         <v>12654400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>14213000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>14086700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>13829500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>16771300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>14862900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>14105500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>12942200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>14459300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>12266400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11306500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>8717600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11838200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>11339400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>10463800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>9815100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>11985500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>11585700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>10281100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>9094300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>11187500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>10148400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>8647600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>8210200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>10573500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>9624000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2251900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2143400</v>
+      </c>
+      <c r="F10" s="3">
         <v>2612200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2876500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2868900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2864300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3355200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>3005800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2823700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2687900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2786100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2252500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2041400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1861800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2264600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2182600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2048400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1895200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2049600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1794100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1631600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1544000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1751000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1612500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1364600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1368500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>1595200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>1607200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1085,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>549600</v>
+      </c>
+      <c r="F12" s="3">
         <v>578600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>555700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>511400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>575800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>549200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>482000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>466500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>416700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>398100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>306500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>332600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>347200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>341200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>318000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>329300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>371300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>272800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>312300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>309900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>326800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>344400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>310900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>291600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>338700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>318400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>348800</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1281,35 +1321,41 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>1000</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12509900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12344400</v>
+      </c>
+      <c r="F17" s="3">
         <v>14516700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>16238600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>16178400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>16105000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>19194100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>17052100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>16186500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>15151300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16544200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>13954400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>12912000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10413300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>13614700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>13080200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>12169500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>11436800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>13600700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>13090300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>11732400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>10537600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>12734100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>11673200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>10018300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>9504800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>12030700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>11015800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>290700</v>
+      </c>
+      <c r="F18" s="3">
         <v>750000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>850900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>777200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>588800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>932400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>816600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>742700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>478800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>701200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>564500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>435900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>166100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>488100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>441800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>342700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>273500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>434400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>289500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>180300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>100700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>204400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>87700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>73900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>138000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>215400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1682,455 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-92300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-59800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-46500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-24600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-8100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-12100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-6700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-27400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-30100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-36300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-33100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-39700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-26100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-34700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-66000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-32500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-26200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-23500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-22100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-12000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-14100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-10200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>10300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>637400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>542500</v>
+      </c>
+      <c r="F21" s="3">
         <v>1040400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1137900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1084000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>907400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1237700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1123000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1022700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>743300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>924900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>788500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>644500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>406600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>704700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>608500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>529500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>451400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>610700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>474200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>356300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>279800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>382000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>258700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>158500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>247700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>329700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>406500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>74600</v>
+      </c>
+      <c r="F22" s="3">
         <v>85100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>94300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>62100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>60600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>65100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>67700</v>
       </c>
       <c r="J22" s="3">
         <v>65100</v>
       </c>
       <c r="K22" s="3">
+        <v>67700</v>
+      </c>
+      <c r="L22" s="3">
+        <v>65100</v>
+      </c>
+      <c r="M22" s="3">
         <v>68500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>73400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>61000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>64100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>62800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>63200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>65700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>70100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>67100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>60600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>54200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>55500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>49700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>41600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>43100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>52900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>56100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>46900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>228100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>130400</v>
+      </c>
+      <c r="F23" s="3">
         <v>605000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>710100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>690500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>520200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>855200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>742100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>650200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>380300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>591500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>470400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>332100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>77300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>390200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>310100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>240100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>180200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>350300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>213300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>112800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>36800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>150300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>35300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-69300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>15200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>101300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>167800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F24" s="3">
         <v>123100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>156200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>151000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>98800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>173500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>185100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>165100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>95100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>160000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>120800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>85300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>13900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>84700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>66400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>48200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>46700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>85500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>39800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>27500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-11600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>424800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-117800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>-15400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-88500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-5700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>183400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>105600</v>
+      </c>
+      <c r="F26" s="3">
         <v>481900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>553800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>539500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>421400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>681700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>557100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>485200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>285200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>431400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>349600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>246800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>63400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>305500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>243600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>191900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>133600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>264800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>173500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>85300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>48400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-274500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>153200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-53900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>103700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>107100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>176500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>113600</v>
+      </c>
+      <c r="F27" s="3">
         <v>437200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>541200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>515700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>412200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>639600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>512000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>466100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>260200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>395100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>310200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>212800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>42600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>258100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>202200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>162200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>118100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>232800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>168400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>77000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>32700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-288800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>139000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-72300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>106900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>98400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>92300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>85700</v>
+      </c>
+      <c r="F32" s="3">
         <v>59800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>46500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>24600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>8100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>12100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>6700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>27400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>30100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>36300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>33100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>39700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>26100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>34700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>66000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>32500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>26200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>23500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>22100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>12000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>14100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>12500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>9300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>10200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>2500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-10300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>176500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>113600</v>
+      </c>
+      <c r="F33" s="3">
         <v>437200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>541200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>515700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>412200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>639600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>512000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>466100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>260200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>395100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>310200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>212800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>42600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>258100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>202200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>162200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>118100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>232800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>168400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>77000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>32700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-288800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>139000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-72300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>106900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>98400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>176500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>113600</v>
+      </c>
+      <c r="F35" s="3">
         <v>437200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>541200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>515700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>412200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>639600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>512000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>466100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>260200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>395100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>310200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>212800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>42600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>258100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>202200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>162200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>118100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>232800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>168400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>77000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>32700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-288800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>139000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-72300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>106900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>98400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,755 +3266,811 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4354800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4250100</v>
+      </c>
+      <c r="F41" s="3">
         <v>5018900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5567400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3788100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3930300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3756500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3647500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3175800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3068400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4040100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3698700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3495600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3551000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3520900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3310900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2717400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2662900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3399900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2212500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2613100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1848000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1660300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1143800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1387500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>2754600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>2523000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>2253100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>71200</v>
+      </c>
+      <c r="F42" s="3">
         <v>61800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>60400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>57600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>92500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>72500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>83500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>82800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>59400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>51100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>54000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>50700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>66500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>65100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>65200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>70600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>70200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>108600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>112300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>75900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>84300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>86500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>118200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>153600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>196700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>162200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>196600</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10125900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10236200</v>
+      </c>
+      <c r="F43" s="3">
         <v>11854000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>12346700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>14797200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>15244900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>16798400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>13698200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>13029500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>12518900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>13537100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>11207200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>10257700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>8850900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>12562500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>11648000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>11474800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>9481000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>10010500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>10509900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>10307200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>8557600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>9712800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>9751000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>8075700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>8062800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>8914800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>8875200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5907200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6371900</v>
+      </c>
+      <c r="F44" s="3">
         <v>7502100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>8417900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>8867700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>8300700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>8441600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>8727800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>7825800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>6380600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5785800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>5242300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>5126700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4946900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3998400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3816900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3573000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>3434700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>3792300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>4280900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>4125100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>3791700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>3983300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>3600000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>3177500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>2794000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>2833600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>2882800</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1818200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2011600</v>
+      </c>
+      <c r="F45" s="3">
         <v>1695300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1725700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1594500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1428500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1413800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1414700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1396500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1308100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1036400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1102900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1116900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1318200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1299100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1275600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1172300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1237500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1168400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1211800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1524900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1381800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>1502200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1419700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>1354900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>1060200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>980200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>930100</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22274500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>22940900</v>
+      </c>
+      <c r="F46" s="3">
         <v>26132000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>28118100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>29105000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>28996900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>30482800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>27571700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>25510300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>23335400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>24450500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>21305000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>20047600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>18733400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>21446000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>20116800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>19008100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>16886200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>18479800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>18327500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>18646200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>15663300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>16945200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>16032700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>14149300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>14868400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>15413900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>15137700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1637400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1738400</v>
+      </c>
+      <c r="F47" s="3">
         <v>1673800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1554800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1543800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1508500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1293600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1193400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1120400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>955300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>939200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>844200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>701700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>611300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>618200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>556300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>554700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>599900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>559700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>506600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>431900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>408700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>392900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>366600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>304700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>288500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>236300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3123800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3303900</v>
+      </c>
+      <c r="F48" s="3">
         <v>3174200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2788700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2846700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2986100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2834000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2711600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2657000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2674900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2565700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2555100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2472500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2017100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2016100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1937900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1936400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1662900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1568900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1514700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1636000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1687600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1663500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1706600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1716100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1649400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>1588100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>1593000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8190500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8267100</v>
+      </c>
+      <c r="F49" s="3">
         <v>8184600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>8048700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>7849700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>8066800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>8138300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>8238900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>8447600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>8405000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>8152100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>7980100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>7991500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>7984600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>8230900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>8196700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>8391500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>8324600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>8296700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>8286300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>8426900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>8514500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>8416300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>8448400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>8317200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>8349100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>8313800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>8560500</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2698100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2669800</v>
+      </c>
+      <c r="F52" s="3">
         <v>2584100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2783200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2903300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2952200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2897500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2859000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2725300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2620100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2537600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2399800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2281700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2781800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2715100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2581700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2520900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2514900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>2373500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2252300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>2170400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>2220000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>2081500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>2369200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>2139600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>2030600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>1651600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>1578300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37924400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>38920100</v>
+      </c>
+      <c r="F54" s="3">
         <v>41748600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>43293500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>44248500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>44510400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>45646200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>42574700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>40460600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>37990600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>38645100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>35084200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>33495000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>32128200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>35026300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>33389400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>32411600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>29988500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>31278600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>30887400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>31311400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>28494200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>29499400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>28923600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>26626800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>27186000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>27203800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>27084500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4578,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7151300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9772900</v>
+      </c>
+      <c r="F57" s="3">
         <v>7899600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>12348700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>11505300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>11035900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>12516700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>11492000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>11198200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>10220800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>9968000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8525700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>7806100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7509700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>8665800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>7857700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>6736700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>6429800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>7339800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>7281900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>7919600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>6450800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>7498200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>7240100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>6209100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>5649900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>6162700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>5758900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2531700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>395300</v>
+      </c>
+      <c r="F58" s="3">
         <v>3674300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>753100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3067600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3081900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1637700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1856900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1853800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1717600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1987100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3508300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3895400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4845600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3966000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3901700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4094900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3225900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3675300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3259700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>3470000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1968700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1004200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1045200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1055400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>905600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>700600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>708200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15695000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>15925100</v>
+      </c>
+      <c r="F59" s="3">
         <v>17343400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>17673600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>18396800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>18640900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>19546000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>17995800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>16166600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>15433300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>15165700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>12541100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11673600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>10902800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>12601600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>12280300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>12013500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>10834600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>11768900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>12050400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>11625600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>11040300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>12086600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>12009800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>10788000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>11778300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>12984600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>11364000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25378000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>26093400</v>
+      </c>
+      <c r="F60" s="3">
         <v>28917200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>30775300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>32969700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>32758700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>33700300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>31344700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>29218600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>27371600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>27120700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>24575100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>23375100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>23258100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>25233500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>24039700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>22845100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>20490300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>22784100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>22592000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>23015300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>19459700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>20589000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>20295000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>18052500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>18333800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>19848000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>17831000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3972800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3964000</v>
+      </c>
+      <c r="F61" s="3">
         <v>4180700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4185100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2890000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2896300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3619300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3627000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3622000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3632800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4246500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2873000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2867400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1911400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2498400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2452800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2462800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2426800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1821200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1820100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1842200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2648700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2617700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2591300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>2579200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>2966700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>2465200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>2487500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2716600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2815700</v>
+      </c>
+      <c r="F62" s="3">
         <v>2847200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2706100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2803700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3460800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3534700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3464100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3460000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3375600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3367000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3179700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3022200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2899300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2999200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2882400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2846900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2974300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>2803400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>2521900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>2115800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1839700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1916700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1848900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1817100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>1790200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>1856000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>3583200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32515200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>33332500</v>
+      </c>
+      <c r="F66" s="3">
         <v>36424100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>38109200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>39068600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>39519800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>41162200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>38571700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>36400300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>34431600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>34758400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>30568500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>29159200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>27937000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>30588700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>29147100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>27899500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>25598400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>27099800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>26872400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>26971200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>23981900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>25154000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>24769900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>22489200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>23118700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>24201600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>23923100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5159800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4969300</v>
+      </c>
+      <c r="F72" s="3">
         <v>4824900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>4473200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>4356700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3841000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3460100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2951300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2796200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2334600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2056000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1803600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1825700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1614800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1603800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1453200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1586700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1424000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1249300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1110200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1242900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1160100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1143900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1531400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1684100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1756400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>1610600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>1616600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5409100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5587600</v>
+      </c>
+      <c r="F76" s="3">
         <v>5324600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>5184300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5179900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4990600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4484000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4003000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4060400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3559000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3886800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4515700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4335800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4191200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4437600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4242300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4512100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4390100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4178800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4015000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>4340200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>4512300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>4345400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>4153700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>4137600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>4067300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>3002200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>3161400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>176500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>113600</v>
+      </c>
+      <c r="F81" s="3">
         <v>437200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>541200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>515700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>412200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>639600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>512000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>466100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>260200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>395100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>310200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>212800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>42600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>258100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>202200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>162200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>118100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>232800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>168400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>77000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>32700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-288800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>139000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-72300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>106900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>98400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>156800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6607,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>339600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>337500</v>
+      </c>
+      <c r="F83" s="3">
         <v>350300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>333500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>331400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>326600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>317400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>313100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>307300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>294600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>260000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>257100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>248300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>266500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>251200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>232700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>219300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>204100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>199800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>206800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>188000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>193300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>190100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>180300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>174900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>176400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>181400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>191300</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>649800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>244400</v>
+      </c>
+      <c r="F89" s="3">
         <v>74000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2084300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>398700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1462500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>606300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1560600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>447600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>601400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1962900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>771400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>317100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>431600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>538300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1381600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-141600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-478100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1547600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>67100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>336000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-753500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>210900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>363600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-577400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>207600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>345500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>1558700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-331500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-374200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-434400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-383400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-386200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-364500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-361800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-278500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-279300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-111400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-71600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-69600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-50200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-68600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-71900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-75000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-31200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-76200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-86400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-34900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-37200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-61300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-55300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-44600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-56700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-177300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-181700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-154700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-314000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-407200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-806000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-387800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-574100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-389300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-343400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-191600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-279600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-197000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-214300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-285100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-237800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-215400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-303400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-181500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-217100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-103700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-197400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-173500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-103200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-92900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-743900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-1323900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>93100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-200800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7652,99 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-123400</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-119800</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-102000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-96400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-91400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>3300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-92300</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-85100</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +8004,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-283400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-729100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-301500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>625300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-8500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-750100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-110400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-717100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-179800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1224700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1524500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-387900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-91100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-69000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-157600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-524100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>512300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-86000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-165100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-317800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>691600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1071600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>395000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-525700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-66500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>1318500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-117800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-1014900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>29900</v>
+      </c>
+      <c r="F101" s="3">
         <v>86200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-124300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-144700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>35600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-28500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>31100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-68900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>100100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>33800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>3700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-94800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>44700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-63500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-12800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>8500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>22000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-46200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-65000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>43000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>13700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>11400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>20600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>29300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-50800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-768800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-548500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1779300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-142200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>173800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>109000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>471700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>107400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-971800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>341500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>203000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-55400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>30100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>210000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>593500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>54600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-737000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1187300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-400600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>765100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>187700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>516500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-243600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1367100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>231600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>270000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>346900</v>
       </c>
     </row>
